--- a/Asylum Seeking/European - Asylum Seekers_Harwinder/Data_Asylum_Seekers_Harry.xlsx
+++ b/Asylum Seeking/European - Asylum Seekers_Harwinder/Data_Asylum_Seekers_Harry.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\harwi\Documents\UNO Classes\Sem 4\Data Visualization\Immigration Proj\European - Asylum Seekers\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9B64ECF-34E9-4CA1-9619-03239C5B0A73}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FDBA788-BA07-4FD2-9630-60E56B3C12A3}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="3" xr2:uid="{C10C836B-CDB2-4392-9929-B5D755AE6B06}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="9" xr2:uid="{C10C836B-CDB2-4392-9929-B5D755AE6B06}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="570" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="571" uniqueCount="159">
   <si>
     <t>Total</t>
   </si>
@@ -195,9 +195,6 @@
     <t>Liechtenstein</t>
   </si>
   <si>
-    <t>Countries Name</t>
-  </si>
-  <si>
     <t>0–13</t>
   </si>
   <si>
@@ -517,6 +514,9 @@
   </si>
   <si>
     <t>Faroe Is.</t>
+  </si>
+  <si>
+    <t>Number of (non-EU) asylum seekers in the EU and EFTA Member States</t>
   </si>
 </sst>
 </file>
@@ -526,8 +526,8 @@
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
-    <numFmt numFmtId="170" formatCode="#\ ##0_i"/>
-    <numFmt numFmtId="171" formatCode="#,##0_i"/>
+    <numFmt numFmtId="166" formatCode="#\ ##0_i"/>
+    <numFmt numFmtId="167" formatCode="#,##0_i"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -670,7 +670,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -725,52 +725,46 @@
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
@@ -793,6 +787,18 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1112,7 +1118,7 @@
   <dimension ref="A3:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1184,10 +1190,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E2CBE93-9CA2-42BC-AAB7-15D342B0B4F6}">
-  <dimension ref="A1:K63"/>
+  <dimension ref="A1:CQ56"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" zoomScale="46" workbookViewId="0">
+      <selection activeCell="BS27" sqref="BS27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1205,202 +1211,1448 @@
     <col min="11" max="11" width="8.08984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A1" s="20" t="s">
+    <row r="1" spans="1:95" x14ac:dyDescent="0.35">
+      <c r="A1" s="43" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="20" t="s">
+      <c r="B1" s="43"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="43" t="s">
         <v>34</v>
       </c>
-      <c r="E1" s="20"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="22" t="s">
+      <c r="E1" s="43"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="44" t="s">
         <v>39</v>
       </c>
-      <c r="H1" s="22"/>
-      <c r="I1" s="21"/>
-      <c r="J1" s="22" t="s">
+      <c r="H1" s="44"/>
+      <c r="I1" s="20"/>
+      <c r="J1" s="44" t="s">
         <v>31</v>
       </c>
-      <c r="K1" s="22"/>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A2" s="23" t="s">
+      <c r="K1" s="44"/>
+      <c r="M1" s="43" t="s">
+        <v>58</v>
+      </c>
+      <c r="N1" s="43"/>
+      <c r="P1" s="43" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q1" s="43"/>
+      <c r="S1" s="44" t="s">
+        <v>30</v>
+      </c>
+      <c r="T1" s="44"/>
+      <c r="V1" s="44" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" s="44"/>
+      <c r="Y1" s="43" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z1" s="43"/>
+      <c r="AA1" s="20"/>
+      <c r="AB1" s="44" t="s">
+        <v>20</v>
+      </c>
+      <c r="AC1" s="44"/>
+      <c r="AD1" s="20"/>
+      <c r="AE1" s="44" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF1" s="44"/>
+      <c r="AG1" s="20"/>
+      <c r="AH1" s="44" t="s">
+        <v>23</v>
+      </c>
+      <c r="AI1" s="44"/>
+      <c r="AK1" s="44" t="s">
+        <v>29</v>
+      </c>
+      <c r="AL1" s="44"/>
+      <c r="AM1" s="20"/>
+      <c r="AN1" s="44" t="s">
+        <v>44</v>
+      </c>
+      <c r="AO1" s="44"/>
+      <c r="AP1" s="20"/>
+      <c r="AQ1" s="44" t="s">
+        <v>43</v>
+      </c>
+      <c r="AR1" s="44"/>
+      <c r="AS1" s="20"/>
+      <c r="AT1" s="44" t="s">
+        <v>36</v>
+      </c>
+      <c r="AU1" s="44"/>
+      <c r="AW1" s="41" t="s">
+        <v>42</v>
+      </c>
+      <c r="AX1" s="41"/>
+      <c r="AY1" s="20"/>
+      <c r="AZ1" s="41" t="s">
+        <v>37</v>
+      </c>
+      <c r="BA1" s="41"/>
+      <c r="BB1" s="20"/>
+      <c r="BC1" s="41" t="s">
+        <v>25</v>
+      </c>
+      <c r="BD1" s="41"/>
+      <c r="BE1" s="20"/>
+      <c r="BF1" s="41" t="s">
+        <v>28</v>
+      </c>
+      <c r="BG1" s="41"/>
+      <c r="BI1" s="44" t="s">
+        <v>35</v>
+      </c>
+      <c r="BJ1" s="44"/>
+      <c r="BK1" s="20"/>
+      <c r="BL1" s="44" t="s">
+        <v>40</v>
+      </c>
+      <c r="BM1" s="44"/>
+      <c r="BN1" s="20"/>
+      <c r="BO1" s="44" t="s">
+        <v>38</v>
+      </c>
+      <c r="BP1" s="44"/>
+      <c r="BQ1" s="20"/>
+      <c r="BR1" s="44" t="s">
+        <v>33</v>
+      </c>
+      <c r="BS1" s="44"/>
+      <c r="BU1" s="44" t="s">
+        <v>45</v>
+      </c>
+      <c r="BV1" s="44"/>
+      <c r="BW1" s="20"/>
+      <c r="BX1" s="44" t="s">
+        <v>32</v>
+      </c>
+      <c r="BY1" s="44"/>
+      <c r="BZ1" s="20"/>
+      <c r="CA1" s="44" t="s">
+        <v>27</v>
+      </c>
+      <c r="CB1" s="44"/>
+      <c r="CC1" s="20"/>
+      <c r="CD1" s="44" t="s">
+        <v>24</v>
+      </c>
+      <c r="CE1" s="44"/>
+      <c r="CG1" s="44" t="s">
+        <v>49</v>
+      </c>
+      <c r="CH1" s="44"/>
+      <c r="CI1" s="20"/>
+      <c r="CJ1" s="44" t="s">
+        <v>50</v>
+      </c>
+      <c r="CK1" s="44"/>
+      <c r="CL1" s="20"/>
+      <c r="CM1" s="44" t="s">
+        <v>48</v>
+      </c>
+      <c r="CN1" s="44"/>
+      <c r="CO1" s="20"/>
+      <c r="CP1" s="44" t="s">
+        <v>47</v>
+      </c>
+      <c r="CQ1" s="44"/>
+    </row>
+    <row r="2" spans="1:95" x14ac:dyDescent="0.35">
+      <c r="A2" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="B2" s="22">
+        <v>2770</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="21" t="s">
         <v>66</v>
       </c>
-      <c r="B2" s="24">
-        <v>2770</v>
-      </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="23" t="s">
+      <c r="E2" s="22">
+        <v>1065</v>
+      </c>
+      <c r="F2" s="1"/>
+      <c r="G2" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="E2" s="24">
+      <c r="H2" s="23">
+        <v>280</v>
+      </c>
+      <c r="I2" s="1"/>
+      <c r="J2" s="21" t="s">
+        <v>68</v>
+      </c>
+      <c r="K2" s="23">
+        <v>675</v>
+      </c>
+      <c r="M2" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="N2" s="22">
+        <v>44165</v>
+      </c>
+      <c r="P2" s="21" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q2" s="23">
+        <v>15</v>
+      </c>
+      <c r="S2" s="21" t="s">
+        <v>80</v>
+      </c>
+      <c r="T2" s="23">
+        <v>460</v>
+      </c>
+      <c r="V2" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="W2" s="22">
+        <v>13145</v>
+      </c>
+      <c r="Y2" s="21" t="s">
+        <v>87</v>
+      </c>
+      <c r="Z2" s="22">
+        <v>19070</v>
+      </c>
+      <c r="AA2" s="1"/>
+      <c r="AB2" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="AC2" s="22">
+        <v>10205</v>
+      </c>
+      <c r="AD2" s="1"/>
+      <c r="AE2" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="AF2" s="23">
+        <v>170</v>
+      </c>
+      <c r="AG2" s="1"/>
+      <c r="AH2" s="32" t="s">
+        <v>74</v>
+      </c>
+      <c r="AI2" s="22">
+        <v>7315</v>
+      </c>
+      <c r="AK2" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="AL2" s="22">
+        <v>1970</v>
+      </c>
+      <c r="AM2" s="1"/>
+      <c r="AN2" s="21" t="s">
+        <v>81</v>
+      </c>
+      <c r="AO2" s="23">
+        <v>50</v>
+      </c>
+      <c r="AP2" s="1"/>
+      <c r="AQ2" s="21" t="s">
+        <v>94</v>
+      </c>
+      <c r="AR2" s="33">
+        <v>120</v>
+      </c>
+      <c r="AS2" s="1"/>
+      <c r="AT2" s="21" t="s">
+        <v>68</v>
+      </c>
+      <c r="AU2" s="22">
+        <v>410</v>
+      </c>
+      <c r="AW2" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="AX2" s="23">
+        <v>270</v>
+      </c>
+      <c r="AY2" s="1"/>
+      <c r="AZ2" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="BA2" s="23">
+        <v>455</v>
+      </c>
+      <c r="BB2" s="1"/>
+      <c r="BC2" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="BD2" s="22">
+        <v>2960</v>
+      </c>
+      <c r="BE2" s="1"/>
+      <c r="BF2" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="BG2" s="22">
+        <v>3275</v>
+      </c>
+      <c r="BI2" s="21" t="s">
+        <v>81</v>
+      </c>
+      <c r="BJ2" s="22">
+        <v>1600</v>
+      </c>
+      <c r="BK2" s="1"/>
+      <c r="BL2" s="21" t="s">
+        <v>102</v>
+      </c>
+      <c r="BM2" s="23">
+        <v>225</v>
+      </c>
+      <c r="BN2" s="1"/>
+      <c r="BO2" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="BP2" s="23">
+        <v>970</v>
+      </c>
+      <c r="BQ2" s="1"/>
+      <c r="BR2" s="21" t="s">
+        <v>74</v>
+      </c>
+      <c r="BS2" s="23">
+        <v>775</v>
+      </c>
+      <c r="BU2" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="BV2" s="23">
+        <v>30</v>
+      </c>
+      <c r="BW2" s="1"/>
+      <c r="BX2" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="BY2" s="22">
+        <v>565</v>
+      </c>
+      <c r="BZ2" s="1"/>
+      <c r="CA2" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="CB2" s="22">
+        <v>2615</v>
+      </c>
+      <c r="CC2" s="1"/>
+      <c r="CD2" s="21" t="s">
+        <v>76</v>
+      </c>
+      <c r="CE2" s="22">
+        <v>3955</v>
+      </c>
+      <c r="CG2" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="CH2" s="23">
+        <v>110</v>
+      </c>
+      <c r="CI2" s="1"/>
+      <c r="CJ2" s="32" t="s">
+        <v>105</v>
+      </c>
+      <c r="CK2" s="33">
+        <v>25</v>
+      </c>
+      <c r="CL2" s="1"/>
+      <c r="CM2" s="21" t="s">
+        <v>85</v>
+      </c>
+      <c r="CN2" s="23">
+        <v>770</v>
+      </c>
+      <c r="CO2" s="1"/>
+      <c r="CP2" s="21" t="s">
+        <v>68</v>
+      </c>
+      <c r="CQ2" s="22">
+        <v>2495</v>
+      </c>
+    </row>
+    <row r="3" spans="1:95" x14ac:dyDescent="0.35">
+      <c r="A3" s="24" t="s">
+        <v>69</v>
+      </c>
+      <c r="B3" s="25">
+        <v>2420</v>
+      </c>
+      <c r="C3" s="1"/>
+      <c r="D3" s="24" t="s">
+        <v>70</v>
+      </c>
+      <c r="E3" s="25">
+        <v>620</v>
+      </c>
+      <c r="F3" s="1"/>
+      <c r="G3" s="24" t="s">
+        <v>71</v>
+      </c>
+      <c r="H3" s="26">
+        <v>145</v>
+      </c>
+      <c r="I3" s="1"/>
+      <c r="J3" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="K3" s="26">
+        <v>600</v>
+      </c>
+      <c r="M3" s="24" t="s">
+        <v>70</v>
+      </c>
+      <c r="N3" s="25">
+        <v>16330</v>
+      </c>
+      <c r="P3" s="24" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q3" s="26">
+        <v>10</v>
+      </c>
+      <c r="S3" s="24" t="s">
+        <v>72</v>
+      </c>
+      <c r="T3" s="26">
+        <v>450</v>
+      </c>
+      <c r="V3" s="24" t="s">
+        <v>66</v>
+      </c>
+      <c r="W3" s="25">
+        <v>11820</v>
+      </c>
+      <c r="Y3" s="24" t="s">
+        <v>88</v>
+      </c>
+      <c r="Z3" s="25">
+        <v>8465</v>
+      </c>
+      <c r="AA3" s="1"/>
+      <c r="AB3" s="24" t="s">
+        <v>80</v>
+      </c>
+      <c r="AC3" s="25">
+        <v>8280</v>
+      </c>
+      <c r="AD3" s="1"/>
+      <c r="AE3" s="24" t="s">
+        <v>76</v>
+      </c>
+      <c r="AF3" s="26">
+        <v>120</v>
+      </c>
+      <c r="AG3" s="1"/>
+      <c r="AH3" s="24" t="s">
+        <v>83</v>
+      </c>
+      <c r="AI3" s="25">
+        <v>5140</v>
+      </c>
+      <c r="AK3" s="24" t="s">
+        <v>95</v>
+      </c>
+      <c r="AL3" s="25">
+        <v>870</v>
+      </c>
+      <c r="AM3" s="1"/>
+      <c r="AN3" s="24" t="s">
+        <v>70</v>
+      </c>
+      <c r="AO3" s="26">
+        <v>20</v>
+      </c>
+      <c r="AP3" s="1"/>
+      <c r="AQ3" s="24" t="s">
+        <v>81</v>
+      </c>
+      <c r="AR3" s="30">
+        <v>50</v>
+      </c>
+      <c r="AS3" s="1"/>
+      <c r="AT3" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="AU3" s="25">
+        <v>280</v>
+      </c>
+      <c r="AW3" s="24" t="s">
+        <v>70</v>
+      </c>
+      <c r="AX3" s="26">
+        <v>215</v>
+      </c>
+      <c r="AY3" s="1"/>
+      <c r="AZ3" s="24" t="s">
+        <v>99</v>
+      </c>
+      <c r="BA3" s="26">
+        <v>310</v>
+      </c>
+      <c r="BB3" s="1"/>
+      <c r="BC3" s="24" t="s">
+        <v>76</v>
+      </c>
+      <c r="BD3" s="25">
+        <v>1870</v>
+      </c>
+      <c r="BE3" s="1"/>
+      <c r="BF3" s="24" t="s">
+        <v>66</v>
+      </c>
+      <c r="BG3" s="25">
+        <v>1735</v>
+      </c>
+      <c r="BI3" s="24" t="s">
+        <v>67</v>
+      </c>
+      <c r="BJ3" s="25">
+        <v>225</v>
+      </c>
+      <c r="BK3" s="1"/>
+      <c r="BL3" s="24" t="s">
+        <v>67</v>
+      </c>
+      <c r="BM3" s="26">
+        <v>135</v>
+      </c>
+      <c r="BN3" s="1"/>
+      <c r="BO3" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="BP3" s="26">
+        <v>350</v>
+      </c>
+      <c r="BQ3" s="1"/>
+      <c r="BR3" s="24" t="s">
+        <v>90</v>
+      </c>
+      <c r="BS3" s="26">
+        <v>470</v>
+      </c>
+      <c r="BU3" s="24" t="s">
+        <v>104</v>
+      </c>
+      <c r="BV3" s="26">
+        <v>20</v>
+      </c>
+      <c r="BW3" s="1"/>
+      <c r="BX3" s="24" t="s">
+        <v>81</v>
+      </c>
+      <c r="BY3" s="25">
+        <v>455</v>
+      </c>
+      <c r="BZ3" s="1"/>
+      <c r="CA3" s="24" t="s">
+        <v>76</v>
+      </c>
+      <c r="CB3" s="25">
+        <v>1095</v>
+      </c>
+      <c r="CC3" s="1"/>
+      <c r="CD3" s="24" t="s">
+        <v>70</v>
+      </c>
+      <c r="CE3" s="25">
+        <v>3595</v>
+      </c>
+      <c r="CG3" s="24" t="s">
+        <v>80</v>
+      </c>
+      <c r="CH3" s="26">
+        <v>90</v>
+      </c>
+      <c r="CI3" s="1"/>
+      <c r="CJ3" s="34" t="s">
+        <v>72</v>
+      </c>
+      <c r="CK3" s="30">
+        <v>25</v>
+      </c>
+      <c r="CL3" s="1"/>
+      <c r="CM3" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="CN3" s="26">
+        <v>415</v>
+      </c>
+      <c r="CO3" s="1"/>
+      <c r="CP3" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="CQ3" s="25">
+        <v>1195</v>
+      </c>
+    </row>
+    <row r="4" spans="1:95" x14ac:dyDescent="0.35">
+      <c r="A4" s="24" t="s">
+        <v>66</v>
+      </c>
+      <c r="B4" s="25">
+        <v>1045</v>
+      </c>
+      <c r="C4" s="1"/>
+      <c r="D4" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="E4" s="25">
+        <v>495</v>
+      </c>
+      <c r="F4" s="1"/>
+      <c r="G4" s="24" t="s">
+        <v>72</v>
+      </c>
+      <c r="H4" s="26">
+        <v>140</v>
+      </c>
+      <c r="I4" s="1"/>
+      <c r="J4" s="24" t="s">
+        <v>72</v>
+      </c>
+      <c r="K4" s="26">
+        <v>405</v>
+      </c>
+      <c r="M4" s="24" t="s">
+        <v>76</v>
+      </c>
+      <c r="N4" s="25">
+        <v>10855</v>
+      </c>
+      <c r="P4" s="24" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q4" s="26">
+        <v>10</v>
+      </c>
+      <c r="S4" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="T4" s="26">
+        <v>330</v>
+      </c>
+      <c r="V4" s="24" t="s">
+        <v>70</v>
+      </c>
+      <c r="W4" s="25">
+        <v>9640</v>
+      </c>
+      <c r="Y4" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="Z4" s="25">
+        <v>2725</v>
+      </c>
+      <c r="AA4" s="1"/>
+      <c r="AB4" s="24" t="s">
+        <v>72</v>
+      </c>
+      <c r="AC4" s="25">
+        <v>6750</v>
+      </c>
+      <c r="AD4" s="1"/>
+      <c r="AE4" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="AF4" s="26">
+        <v>80</v>
+      </c>
+      <c r="AG4" s="1"/>
+      <c r="AH4" s="24" t="s">
+        <v>86</v>
+      </c>
+      <c r="AI4" s="25">
+        <v>4160</v>
+      </c>
+      <c r="AK4" s="24" t="s">
+        <v>86</v>
+      </c>
+      <c r="AL4" s="25">
+        <v>615</v>
+      </c>
+      <c r="AM4" s="1"/>
+      <c r="AN4" s="24" t="s">
+        <v>96</v>
+      </c>
+      <c r="AO4" s="26">
+        <v>15</v>
+      </c>
+      <c r="AP4" s="1"/>
+      <c r="AQ4" s="24" t="s">
+        <v>70</v>
+      </c>
+      <c r="AR4" s="30">
+        <v>35</v>
+      </c>
+      <c r="AS4" s="1"/>
+      <c r="AT4" s="24" t="s">
+        <v>70</v>
+      </c>
+      <c r="AU4" s="25">
+        <v>185</v>
+      </c>
+      <c r="AW4" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="AX4" s="26">
+        <v>50</v>
+      </c>
+      <c r="AY4" s="1"/>
+      <c r="AZ4" s="24" t="s">
+        <v>100</v>
+      </c>
+      <c r="BA4" s="26">
+        <v>305</v>
+      </c>
+      <c r="BB4" s="1"/>
+      <c r="BC4" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="BD4" s="25">
+        <v>1410</v>
+      </c>
+      <c r="BE4" s="1"/>
+      <c r="BF4" s="24" t="s">
+        <v>76</v>
+      </c>
+      <c r="BG4" s="25">
+        <v>1040</v>
+      </c>
+      <c r="BI4" s="24" t="s">
+        <v>70</v>
+      </c>
+      <c r="BJ4" s="25">
+        <v>65</v>
+      </c>
+      <c r="BK4" s="1"/>
+      <c r="BL4" s="24" t="s">
+        <v>103</v>
+      </c>
+      <c r="BM4" s="26">
+        <v>130</v>
+      </c>
+      <c r="BN4" s="1"/>
+      <c r="BO4" s="24" t="s">
+        <v>76</v>
+      </c>
+      <c r="BP4" s="26">
+        <v>140</v>
+      </c>
+      <c r="BQ4" s="1"/>
+      <c r="BR4" s="24" t="s">
+        <v>66</v>
+      </c>
+      <c r="BS4" s="26">
+        <v>455</v>
+      </c>
+      <c r="BU4" s="24" t="s">
+        <v>96</v>
+      </c>
+      <c r="BV4" s="26">
+        <v>15</v>
+      </c>
+      <c r="BW4" s="1"/>
+      <c r="BX4" s="24" t="s">
+        <v>85</v>
+      </c>
+      <c r="BY4" s="25">
+        <v>285</v>
+      </c>
+      <c r="BZ4" s="1"/>
+      <c r="CA4" s="24" t="s">
+        <v>70</v>
+      </c>
+      <c r="CB4" s="25">
         <v>1065</v>
       </c>
-      <c r="F2" s="1"/>
-      <c r="G2" s="23" t="s">
+      <c r="CC4" s="1"/>
+      <c r="CD4" s="24" t="s">
+        <v>74</v>
+      </c>
+      <c r="CE4" s="25">
+        <v>2575</v>
+      </c>
+      <c r="CG4" s="24" t="s">
+        <v>99</v>
+      </c>
+      <c r="CH4" s="26">
+        <v>50</v>
+      </c>
+      <c r="CI4" s="1"/>
+      <c r="CJ4" s="34" t="s">
+        <v>106</v>
+      </c>
+      <c r="CK4" s="30">
+        <v>20</v>
+      </c>
+      <c r="CL4" s="1"/>
+      <c r="CM4" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="H2" s="25">
+      <c r="CN4" s="26">
+        <v>220</v>
+      </c>
+      <c r="CO4" s="1"/>
+      <c r="CP4" s="24" t="s">
+        <v>66</v>
+      </c>
+      <c r="CQ4" s="25">
+        <v>1125</v>
+      </c>
+    </row>
+    <row r="5" spans="1:95" x14ac:dyDescent="0.35">
+      <c r="A5" s="24" t="s">
+        <v>73</v>
+      </c>
+      <c r="B5" s="25">
+        <v>1000</v>
+      </c>
+      <c r="C5" s="1"/>
+      <c r="D5" s="24" t="s">
+        <v>74</v>
+      </c>
+      <c r="E5" s="25">
+        <v>160</v>
+      </c>
+      <c r="F5" s="1"/>
+      <c r="G5" s="24" t="s">
+        <v>75</v>
+      </c>
+      <c r="H5" s="26">
+        <v>100</v>
+      </c>
+      <c r="I5" s="1"/>
+      <c r="J5" s="24" t="s">
+        <v>76</v>
+      </c>
+      <c r="K5" s="26">
+        <v>195</v>
+      </c>
+      <c r="M5" s="24" t="s">
+        <v>83</v>
+      </c>
+      <c r="N5" s="25">
+        <v>10170</v>
+      </c>
+      <c r="P5" s="24" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q5" s="30">
+        <v>10</v>
+      </c>
+      <c r="S5" s="24" t="s">
+        <v>84</v>
+      </c>
+      <c r="T5" s="26">
         <v>280</v>
       </c>
-      <c r="I2" s="1"/>
-      <c r="J2" s="23" t="s">
-        <v>69</v>
-      </c>
-      <c r="K2" s="25">
-        <v>675</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A3" s="26" t="s">
+      <c r="V5" s="24" t="s">
+        <v>74</v>
+      </c>
+      <c r="W5" s="25">
+        <v>7185</v>
+      </c>
+      <c r="Y5" s="24" t="s">
+        <v>89</v>
+      </c>
+      <c r="Z5" s="25">
+        <v>2400</v>
+      </c>
+      <c r="AA5" s="1"/>
+      <c r="AB5" s="24" t="s">
+        <v>73</v>
+      </c>
+      <c r="AC5" s="25">
+        <v>6625</v>
+      </c>
+      <c r="AD5" s="1"/>
+      <c r="AE5" s="24" t="s">
+        <v>90</v>
+      </c>
+      <c r="AF5" s="26">
+        <v>65</v>
+      </c>
+      <c r="AG5" s="1"/>
+      <c r="AH5" s="24" t="s">
+        <v>67</v>
+      </c>
+      <c r="AI5" s="25">
+        <v>2485</v>
+      </c>
+      <c r="AK5" s="24" t="s">
+        <v>74</v>
+      </c>
+      <c r="AL5" s="25">
+        <v>580</v>
+      </c>
+      <c r="AM5" s="1"/>
+      <c r="AN5" s="24" t="s">
+        <v>82</v>
+      </c>
+      <c r="AO5" s="26">
+        <v>10</v>
+      </c>
+      <c r="AP5" s="1"/>
+      <c r="AQ5" s="24" t="s">
+        <v>96</v>
+      </c>
+      <c r="AR5" s="30">
+        <v>25</v>
+      </c>
+      <c r="AS5" s="1"/>
+      <c r="AT5" s="24" t="s">
+        <v>66</v>
+      </c>
+      <c r="AU5" s="25">
+        <v>180</v>
+      </c>
+      <c r="AW5" s="24" t="s">
+        <v>76</v>
+      </c>
+      <c r="AX5" s="26">
+        <v>30</v>
+      </c>
+      <c r="AY5" s="1"/>
+      <c r="AZ5" s="24" t="s">
+        <v>101</v>
+      </c>
+      <c r="BA5" s="26">
+        <v>170</v>
+      </c>
+      <c r="BB5" s="1"/>
+      <c r="BC5" s="24" t="s">
+        <v>85</v>
+      </c>
+      <c r="BD5" s="25">
+        <v>1300</v>
+      </c>
+      <c r="BE5" s="1"/>
+      <c r="BF5" s="24" t="s">
+        <v>81</v>
+      </c>
+      <c r="BG5" s="25">
+        <v>670</v>
+      </c>
+      <c r="BI5" s="24" t="s">
+        <v>85</v>
+      </c>
+      <c r="BJ5" s="25">
+        <v>55</v>
+      </c>
+      <c r="BK5" s="1"/>
+      <c r="BL5" s="24" t="s">
+        <v>73</v>
+      </c>
+      <c r="BM5" s="26">
         <v>70</v>
       </c>
-      <c r="B3" s="27">
-        <v>2420</v>
-      </c>
-      <c r="C3" s="1"/>
-      <c r="D3" s="26" t="s">
-        <v>71</v>
-      </c>
-      <c r="E3" s="27">
-        <v>620</v>
-      </c>
-      <c r="F3" s="1"/>
-      <c r="G3" s="26" t="s">
+      <c r="BN5" s="1"/>
+      <c r="BO5" s="24" t="s">
+        <v>86</v>
+      </c>
+      <c r="BP5" s="26">
+        <v>80</v>
+      </c>
+      <c r="BQ5" s="1"/>
+      <c r="BR5" s="24" t="s">
+        <v>78</v>
+      </c>
+      <c r="BS5" s="26">
+        <v>170</v>
+      </c>
+      <c r="BU5" s="24" t="s">
+        <v>76</v>
+      </c>
+      <c r="BV5" s="26">
+        <v>15</v>
+      </c>
+      <c r="BW5" s="1"/>
+      <c r="BX5" s="24" t="s">
+        <v>76</v>
+      </c>
+      <c r="BY5" s="25">
+        <v>230</v>
+      </c>
+      <c r="BZ5" s="1"/>
+      <c r="CA5" s="24" t="s">
         <v>72</v>
       </c>
-      <c r="H3" s="28">
-        <v>145</v>
-      </c>
-      <c r="I3" s="1"/>
-      <c r="J3" s="26" t="s">
+      <c r="CB5" s="25">
+        <v>1040</v>
+      </c>
+      <c r="CC5" s="1"/>
+      <c r="CD5" s="24" t="s">
+        <v>80</v>
+      </c>
+      <c r="CE5" s="25">
+        <v>2370</v>
+      </c>
+      <c r="CG5" s="24" t="s">
         <v>66</v>
       </c>
-      <c r="K3" s="28">
+      <c r="CH5" s="26">
+        <v>45</v>
+      </c>
+      <c r="CI5" s="1"/>
+      <c r="CJ5" s="34" t="s">
+        <v>107</v>
+      </c>
+      <c r="CK5" s="30">
+        <v>10</v>
+      </c>
+      <c r="CL5" s="1"/>
+      <c r="CM5" s="24" t="s">
+        <v>76</v>
+      </c>
+      <c r="CN5" s="26">
+        <v>110</v>
+      </c>
+      <c r="CO5" s="1"/>
+      <c r="CP5" s="24" t="s">
+        <v>85</v>
+      </c>
+      <c r="CQ5" s="25">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="6" spans="1:95" x14ac:dyDescent="0.35">
+      <c r="A6" s="24" t="s">
+        <v>70</v>
+      </c>
+      <c r="B6" s="25">
+        <v>895</v>
+      </c>
+      <c r="C6" s="1"/>
+      <c r="D6" s="24" t="s">
+        <v>76</v>
+      </c>
+      <c r="E6" s="25">
+        <v>35</v>
+      </c>
+      <c r="F6" s="1"/>
+      <c r="G6" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="H6" s="26">
+        <v>90</v>
+      </c>
+      <c r="I6" s="1"/>
+      <c r="J6" s="24" t="s">
+        <v>78</v>
+      </c>
+      <c r="K6" s="26">
+        <v>175</v>
+      </c>
+      <c r="M6" s="24" t="s">
+        <v>85</v>
+      </c>
+      <c r="N6" s="25">
+        <v>10160</v>
+      </c>
+      <c r="P6" s="24" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q6" s="30">
+        <v>5</v>
+      </c>
+      <c r="S6" s="24" t="s">
+        <v>83</v>
+      </c>
+      <c r="T6" s="26">
+        <v>250</v>
+      </c>
+      <c r="V6" s="24" t="s">
+        <v>85</v>
+      </c>
+      <c r="W6" s="25">
+        <v>4820</v>
+      </c>
+      <c r="Y6" s="24" t="s">
+        <v>91</v>
+      </c>
+      <c r="Z6" s="25">
+        <v>2240</v>
+      </c>
+      <c r="AA6" s="1"/>
+      <c r="AB6" s="24" t="s">
+        <v>92</v>
+      </c>
+      <c r="AC6" s="25">
+        <v>5280</v>
+      </c>
+      <c r="AD6" s="1"/>
+      <c r="AE6" s="24" t="s">
+        <v>70</v>
+      </c>
+      <c r="AF6" s="26">
+        <v>55</v>
+      </c>
+      <c r="AG6" s="1"/>
+      <c r="AH6" s="24" t="s">
+        <v>93</v>
+      </c>
+      <c r="AI6" s="25">
+        <v>2445</v>
+      </c>
+      <c r="AK6" s="24" t="s">
+        <v>97</v>
+      </c>
+      <c r="AL6" s="25">
+        <v>500</v>
+      </c>
+      <c r="AM6" s="1"/>
+      <c r="AN6" s="24" t="s">
+        <v>98</v>
+      </c>
+      <c r="AO6" s="26">
+        <v>10</v>
+      </c>
+      <c r="AP6" s="1"/>
+      <c r="AQ6" s="24" t="s">
+        <v>85</v>
+      </c>
+      <c r="AR6" s="30">
+        <v>20</v>
+      </c>
+      <c r="AS6" s="1"/>
+      <c r="AT6" s="24" t="s">
+        <v>72</v>
+      </c>
+      <c r="AU6" s="25">
+        <v>135</v>
+      </c>
+      <c r="AW6" s="24" t="s">
+        <v>74</v>
+      </c>
+      <c r="AX6" s="26">
+        <v>20</v>
+      </c>
+      <c r="AY6" s="1"/>
+      <c r="AZ6" s="24" t="s">
+        <v>86</v>
+      </c>
+      <c r="BA6" s="26">
+        <v>150</v>
+      </c>
+      <c r="BB6" s="1"/>
+      <c r="BC6" s="24" t="s">
+        <v>90</v>
+      </c>
+      <c r="BD6" s="25">
+        <v>1270</v>
+      </c>
+      <c r="BE6" s="1"/>
+      <c r="BF6" s="24" t="s">
+        <v>70</v>
+      </c>
+      <c r="BG6" s="25">
+        <v>635</v>
+      </c>
+      <c r="BI6" s="24" t="s">
+        <v>66</v>
+      </c>
+      <c r="BJ6" s="25">
+        <v>40</v>
+      </c>
+      <c r="BK6" s="1"/>
+      <c r="BL6" s="24" t="s">
+        <v>74</v>
+      </c>
+      <c r="BM6" s="26">
+        <v>50</v>
+      </c>
+      <c r="BN6" s="1"/>
+      <c r="BO6" s="24" t="s">
+        <v>85</v>
+      </c>
+      <c r="BP6" s="26">
+        <v>65</v>
+      </c>
+      <c r="BQ6" s="1"/>
+      <c r="BR6" s="24" t="s">
+        <v>76</v>
+      </c>
+      <c r="BS6" s="26">
+        <v>160</v>
+      </c>
+      <c r="BU6" s="24" t="s">
+        <v>70</v>
+      </c>
+      <c r="BV6" s="26">
+        <v>15</v>
+      </c>
+      <c r="BW6" s="1"/>
+      <c r="BX6" s="24" t="s">
+        <v>99</v>
+      </c>
+      <c r="BY6" s="25">
+        <v>155</v>
+      </c>
+      <c r="BZ6" s="1"/>
+      <c r="CA6" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="CB6" s="25">
+        <v>750</v>
+      </c>
+      <c r="CC6" s="1"/>
+      <c r="CD6" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="CE6" s="25">
+        <v>2195</v>
+      </c>
+      <c r="CG6" s="24" t="s">
+        <v>74</v>
+      </c>
+      <c r="CH6" s="26">
+        <v>40</v>
+      </c>
+      <c r="CI6" s="1"/>
+      <c r="CJ6" s="34" t="s">
+        <v>67</v>
+      </c>
+      <c r="CK6" s="30">
+        <v>10</v>
+      </c>
+      <c r="CL6" s="1"/>
+      <c r="CM6" s="24" t="s">
+        <v>70</v>
+      </c>
+      <c r="CN6" s="26">
+        <v>95</v>
+      </c>
+      <c r="CO6" s="1"/>
+      <c r="CP6" s="24" t="s">
+        <v>72</v>
+      </c>
+      <c r="CQ6" s="25">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="7" spans="1:95" x14ac:dyDescent="0.35">
+      <c r="A7" s="27" t="s">
+        <v>79</v>
+      </c>
+      <c r="B7" s="28">
+        <v>10000</v>
+      </c>
+      <c r="C7" s="1"/>
+      <c r="D7" s="27" t="s">
+        <v>79</v>
+      </c>
+      <c r="E7" s="28">
+        <v>90</v>
+      </c>
+      <c r="F7" s="1"/>
+      <c r="G7" s="27" t="s">
+        <v>79</v>
+      </c>
+      <c r="H7" s="29">
         <v>600</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A4" s="26" t="s">
-        <v>67</v>
-      </c>
-      <c r="B4" s="27">
-        <v>1045</v>
-      </c>
-      <c r="C4" s="1"/>
-      <c r="D4" s="26" t="s">
-        <v>66</v>
-      </c>
-      <c r="E4" s="27">
-        <v>495</v>
-      </c>
-      <c r="F4" s="1"/>
-      <c r="G4" s="26" t="s">
-        <v>73</v>
-      </c>
-      <c r="H4" s="28">
-        <v>140</v>
-      </c>
-      <c r="I4" s="1"/>
-      <c r="J4" s="26" t="s">
-        <v>73</v>
-      </c>
-      <c r="K4" s="28">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A5" s="26" t="s">
-        <v>74</v>
-      </c>
-      <c r="B5" s="27">
-        <v>1000</v>
-      </c>
-      <c r="C5" s="1"/>
-      <c r="D5" s="26" t="s">
+      <c r="I7" s="1"/>
+      <c r="J7" s="27" t="s">
+        <v>79</v>
+      </c>
+      <c r="K7" s="28">
+        <v>1415</v>
+      </c>
+      <c r="M7" s="27" t="s">
+        <v>79</v>
+      </c>
+      <c r="N7" s="28">
+        <v>70205</v>
+      </c>
+      <c r="P7" s="27" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q7" s="31">
+        <v>40</v>
+      </c>
+      <c r="S7" s="27" t="s">
+        <v>79</v>
+      </c>
+      <c r="T7" s="28">
+        <v>1895</v>
+      </c>
+      <c r="V7" s="27" t="s">
+        <v>79</v>
+      </c>
+      <c r="W7" s="28">
+        <v>18365</v>
+      </c>
+      <c r="Y7" s="27" t="s">
+        <v>79</v>
+      </c>
+      <c r="Z7" s="28">
+        <v>17830</v>
+      </c>
+      <c r="AA7" s="1"/>
+      <c r="AB7" s="27" t="s">
+        <v>79</v>
+      </c>
+      <c r="AC7" s="28">
+        <v>73350</v>
+      </c>
+      <c r="AD7" s="1"/>
+      <c r="AE7" s="27" t="s">
+        <v>79</v>
+      </c>
+      <c r="AF7" s="29">
+        <v>190</v>
+      </c>
+      <c r="AG7" s="1"/>
+      <c r="AH7" s="27" t="s">
+        <v>79</v>
+      </c>
+      <c r="AI7" s="28">
+        <v>27615</v>
+      </c>
+      <c r="AK7" s="27" t="s">
+        <v>79</v>
+      </c>
+      <c r="AL7" s="28">
+        <v>3080</v>
+      </c>
+      <c r="AM7" s="1"/>
+      <c r="AN7" s="27" t="s">
+        <v>79</v>
+      </c>
+      <c r="AO7" s="29">
         <v>75</v>
       </c>
-      <c r="E5" s="27">
-        <v>160</v>
-      </c>
-      <c r="F5" s="1"/>
-      <c r="G5" s="26" t="s">
-        <v>76</v>
-      </c>
-      <c r="H5" s="28">
-        <v>100</v>
-      </c>
-      <c r="I5" s="1"/>
-      <c r="J5" s="26" t="s">
-        <v>77</v>
-      </c>
-      <c r="K5" s="28">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A6" s="26" t="s">
-        <v>71</v>
-      </c>
-      <c r="B6" s="27">
-        <v>895</v>
-      </c>
-      <c r="C6" s="1"/>
-      <c r="D6" s="26" t="s">
-        <v>77</v>
-      </c>
-      <c r="E6" s="27">
-        <v>35</v>
-      </c>
-      <c r="F6" s="1"/>
-      <c r="G6" s="26" t="s">
-        <v>78</v>
-      </c>
-      <c r="H6" s="28">
-        <v>90</v>
-      </c>
-      <c r="I6" s="1"/>
-      <c r="J6" s="26" t="s">
+      <c r="AP7" s="1"/>
+      <c r="AQ7" s="27" t="s">
         <v>79</v>
       </c>
-      <c r="K6" s="28">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A7" s="29" t="s">
-        <v>80</v>
-      </c>
-      <c r="B7" s="30">
-        <v>10000</v>
-      </c>
-      <c r="C7" s="1"/>
-      <c r="D7" s="29" t="s">
-        <v>80</v>
-      </c>
-      <c r="E7" s="30">
-        <v>90</v>
-      </c>
-      <c r="F7" s="1"/>
-      <c r="G7" s="29" t="s">
-        <v>80</v>
-      </c>
-      <c r="H7" s="31">
-        <v>600</v>
-      </c>
-      <c r="I7" s="1"/>
-      <c r="J7" s="29" t="s">
-        <v>80</v>
-      </c>
-      <c r="K7" s="30">
-        <v>1415</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="AR7" s="29">
+        <v>135</v>
+      </c>
+      <c r="AS7" s="1"/>
+      <c r="AT7" s="27" t="s">
+        <v>79</v>
+      </c>
+      <c r="AU7" s="28">
+        <v>1030</v>
+      </c>
+      <c r="AW7" s="27" t="s">
+        <v>79</v>
+      </c>
+      <c r="AX7" s="29">
+        <v>45</v>
+      </c>
+      <c r="AY7" s="1"/>
+      <c r="AZ7" s="27" t="s">
+        <v>79</v>
+      </c>
+      <c r="BA7" s="29">
+        <v>640</v>
+      </c>
+      <c r="BB7" s="1"/>
+      <c r="BC7" s="27" t="s">
+        <v>79</v>
+      </c>
+      <c r="BD7" s="28">
+        <v>11655</v>
+      </c>
+      <c r="BE7" s="1"/>
+      <c r="BF7" s="27" t="s">
+        <v>79</v>
+      </c>
+      <c r="BG7" s="28">
+        <v>4035</v>
+      </c>
+      <c r="BI7" s="27" t="s">
+        <v>79</v>
+      </c>
+      <c r="BJ7" s="28">
+        <v>425</v>
+      </c>
+      <c r="BK7" s="1"/>
+      <c r="BL7" s="27" t="s">
+        <v>79</v>
+      </c>
+      <c r="BM7" s="29">
+        <v>625</v>
+      </c>
+      <c r="BN7" s="1"/>
+      <c r="BO7" s="27" t="s">
+        <v>79</v>
+      </c>
+      <c r="BP7" s="29">
+        <v>340</v>
+      </c>
+      <c r="BQ7" s="1"/>
+      <c r="BR7" s="27" t="s">
+        <v>79</v>
+      </c>
+      <c r="BS7" s="29">
+        <v>765</v>
+      </c>
+      <c r="BU7" s="27" t="s">
+        <v>79</v>
+      </c>
+      <c r="BV7" s="29">
+        <v>55</v>
+      </c>
+      <c r="BW7" s="1"/>
+      <c r="BX7" s="27" t="s">
+        <v>79</v>
+      </c>
+      <c r="BY7" s="28">
+        <v>1260</v>
+      </c>
+      <c r="BZ7" s="1"/>
+      <c r="CA7" s="27" t="s">
+        <v>79</v>
+      </c>
+      <c r="CB7" s="28">
+        <v>11505</v>
+      </c>
+      <c r="CC7" s="1"/>
+      <c r="CD7" s="27" t="s">
+        <v>79</v>
+      </c>
+      <c r="CE7" s="28">
+        <v>22595</v>
+      </c>
+      <c r="CG7" s="27" t="s">
+        <v>79</v>
+      </c>
+      <c r="CH7" s="29">
+        <v>390</v>
+      </c>
+      <c r="CI7" s="1"/>
+      <c r="CJ7" s="35" t="s">
+        <v>79</v>
+      </c>
+      <c r="CK7" s="31">
+        <v>55</v>
+      </c>
+      <c r="CL7" s="1"/>
+      <c r="CM7" s="27" t="s">
+        <v>79</v>
+      </c>
+      <c r="CN7" s="29">
+        <v>920</v>
+      </c>
+      <c r="CO7" s="1"/>
+      <c r="CP7" s="27" t="s">
+        <v>79</v>
+      </c>
+      <c r="CQ7" s="28">
+        <v>6920</v>
+      </c>
+    </row>
+    <row r="8" spans="1:95" x14ac:dyDescent="0.35">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -1413,202 +2665,42 @@
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A9" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="B9" s="20"/>
-      <c r="C9" s="21"/>
-      <c r="D9" s="20" t="s">
-        <v>46</v>
-      </c>
-      <c r="E9" s="20"/>
-      <c r="F9" s="21"/>
-      <c r="G9" s="22" t="s">
-        <v>30</v>
-      </c>
-      <c r="H9" s="22"/>
-      <c r="I9" s="21"/>
-      <c r="J9" s="22" t="s">
-        <v>21</v>
-      </c>
-      <c r="K9" s="22"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A10" s="23" t="s">
-        <v>66</v>
-      </c>
-      <c r="B10" s="24">
-        <v>44165</v>
-      </c>
+    <row r="9" spans="1:95" x14ac:dyDescent="0.35">
+      <c r="C9" s="20"/>
+      <c r="F9" s="20"/>
+      <c r="I9" s="20"/>
+    </row>
+    <row r="10" spans="1:95" x14ac:dyDescent="0.35">
       <c r="C10" s="1"/>
-      <c r="D10" s="23" t="s">
-        <v>68</v>
-      </c>
-      <c r="E10" s="25">
-        <v>15</v>
-      </c>
       <c r="F10" s="1"/>
-      <c r="G10" s="23" t="s">
-        <v>81</v>
-      </c>
-      <c r="H10" s="25">
-        <v>460</v>
-      </c>
       <c r="I10" s="1"/>
-      <c r="J10" s="23" t="s">
-        <v>66</v>
-      </c>
-      <c r="K10" s="24">
-        <v>13145</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A11" s="26" t="s">
-        <v>71</v>
-      </c>
-      <c r="B11" s="27">
-        <v>16330</v>
-      </c>
+    </row>
+    <row r="11" spans="1:95" x14ac:dyDescent="0.35">
       <c r="C11" s="1"/>
-      <c r="D11" s="26" t="s">
-        <v>82</v>
-      </c>
-      <c r="E11" s="28">
-        <v>10</v>
-      </c>
       <c r="F11" s="1"/>
-      <c r="G11" s="26" t="s">
-        <v>73</v>
-      </c>
-      <c r="H11" s="28">
-        <v>450</v>
-      </c>
       <c r="I11" s="1"/>
-      <c r="J11" s="26" t="s">
-        <v>67</v>
-      </c>
-      <c r="K11" s="27">
-        <v>11820</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A12" s="26" t="s">
-        <v>77</v>
-      </c>
-      <c r="B12" s="27">
-        <v>10855</v>
-      </c>
+    </row>
+    <row r="12" spans="1:95" x14ac:dyDescent="0.35">
       <c r="C12" s="1"/>
-      <c r="D12" s="26" t="s">
-        <v>83</v>
-      </c>
-      <c r="E12" s="28">
-        <v>10</v>
-      </c>
       <c r="F12" s="1"/>
-      <c r="G12" s="26" t="s">
-        <v>66</v>
-      </c>
-      <c r="H12" s="28">
-        <v>330</v>
-      </c>
       <c r="I12" s="1"/>
-      <c r="J12" s="26" t="s">
-        <v>71</v>
-      </c>
-      <c r="K12" s="27">
-        <v>9640</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A13" s="26" t="s">
-        <v>84</v>
-      </c>
-      <c r="B13" s="27">
-        <v>10170</v>
-      </c>
+    </row>
+    <row r="13" spans="1:95" x14ac:dyDescent="0.35">
       <c r="C13" s="1"/>
-      <c r="D13" s="26" t="s">
-        <v>75</v>
-      </c>
-      <c r="E13" s="32">
-        <v>10</v>
-      </c>
       <c r="F13" s="1"/>
-      <c r="G13" s="26" t="s">
-        <v>85</v>
-      </c>
-      <c r="H13" s="28">
-        <v>280</v>
-      </c>
       <c r="I13" s="1"/>
-      <c r="J13" s="26" t="s">
-        <v>75</v>
-      </c>
-      <c r="K13" s="27">
-        <v>7185</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A14" s="26" t="s">
-        <v>86</v>
-      </c>
-      <c r="B14" s="27">
-        <v>10160</v>
-      </c>
+    </row>
+    <row r="14" spans="1:95" x14ac:dyDescent="0.35">
       <c r="C14" s="1"/>
-      <c r="D14" s="26" t="s">
-        <v>87</v>
-      </c>
-      <c r="E14" s="32">
-        <v>5</v>
-      </c>
       <c r="F14" s="1"/>
-      <c r="G14" s="26" t="s">
-        <v>84</v>
-      </c>
-      <c r="H14" s="28">
-        <v>250</v>
-      </c>
       <c r="I14" s="1"/>
-      <c r="J14" s="26" t="s">
-        <v>86</v>
-      </c>
-      <c r="K14" s="27">
-        <v>4820</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A15" s="29" t="s">
-        <v>80</v>
-      </c>
-      <c r="B15" s="30">
-        <v>70205</v>
-      </c>
+    </row>
+    <row r="15" spans="1:95" x14ac:dyDescent="0.35">
       <c r="C15" s="1"/>
-      <c r="D15" s="29" t="s">
-        <v>80</v>
-      </c>
-      <c r="E15" s="33">
-        <v>40</v>
-      </c>
       <c r="F15" s="1"/>
-      <c r="G15" s="29" t="s">
-        <v>80</v>
-      </c>
-      <c r="H15" s="30">
-        <v>1895</v>
-      </c>
       <c r="I15" s="1"/>
-      <c r="J15" s="29" t="s">
-        <v>80</v>
-      </c>
-      <c r="K15" s="30">
-        <v>18365</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
+    </row>
+    <row r="16" spans="1:95" x14ac:dyDescent="0.35">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -1620,201 +2712,6 @@
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A17" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="B17" s="20"/>
-      <c r="C17" s="21"/>
-      <c r="D17" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="E17" s="22"/>
-      <c r="F17" s="21"/>
-      <c r="G17" s="22" t="s">
-        <v>41</v>
-      </c>
-      <c r="H17" s="22"/>
-      <c r="I17" s="21"/>
-      <c r="J17" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="K17" s="22"/>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A18" s="23" t="s">
-        <v>88</v>
-      </c>
-      <c r="B18" s="24">
-        <v>19070</v>
-      </c>
-      <c r="C18" s="1"/>
-      <c r="D18" s="23" t="s">
-        <v>67</v>
-      </c>
-      <c r="E18" s="24">
-        <v>10205</v>
-      </c>
-      <c r="F18" s="1"/>
-      <c r="G18" s="23" t="s">
-        <v>67</v>
-      </c>
-      <c r="H18" s="25">
-        <v>170</v>
-      </c>
-      <c r="I18" s="1"/>
-      <c r="J18" s="34" t="s">
-        <v>75</v>
-      </c>
-      <c r="K18" s="24">
-        <v>7315</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A19" s="26" t="s">
-        <v>89</v>
-      </c>
-      <c r="B19" s="27">
-        <v>8465</v>
-      </c>
-      <c r="C19" s="1"/>
-      <c r="D19" s="26" t="s">
-        <v>81</v>
-      </c>
-      <c r="E19" s="27">
-        <v>8280</v>
-      </c>
-      <c r="F19" s="1"/>
-      <c r="G19" s="26" t="s">
-        <v>77</v>
-      </c>
-      <c r="H19" s="28">
-        <v>120</v>
-      </c>
-      <c r="I19" s="1"/>
-      <c r="J19" s="26" t="s">
-        <v>84</v>
-      </c>
-      <c r="K19" s="27">
-        <v>5140</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A20" s="26" t="s">
-        <v>66</v>
-      </c>
-      <c r="B20" s="27">
-        <v>2725</v>
-      </c>
-      <c r="C20" s="1"/>
-      <c r="D20" s="26" t="s">
-        <v>73</v>
-      </c>
-      <c r="E20" s="27">
-        <v>6750</v>
-      </c>
-      <c r="F20" s="1"/>
-      <c r="G20" s="26" t="s">
-        <v>66</v>
-      </c>
-      <c r="H20" s="28">
-        <v>80</v>
-      </c>
-      <c r="I20" s="1"/>
-      <c r="J20" s="26" t="s">
-        <v>87</v>
-      </c>
-      <c r="K20" s="27">
-        <v>4160</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A21" s="26" t="s">
-        <v>90</v>
-      </c>
-      <c r="B21" s="27">
-        <v>2400</v>
-      </c>
-      <c r="C21" s="1"/>
-      <c r="D21" s="26" t="s">
-        <v>74</v>
-      </c>
-      <c r="E21" s="27">
-        <v>6625</v>
-      </c>
-      <c r="F21" s="1"/>
-      <c r="G21" s="26" t="s">
-        <v>91</v>
-      </c>
-      <c r="H21" s="28">
-        <v>65</v>
-      </c>
-      <c r="I21" s="1"/>
-      <c r="J21" s="26" t="s">
-        <v>68</v>
-      </c>
-      <c r="K21" s="27">
-        <v>2485</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A22" s="26" t="s">
-        <v>92</v>
-      </c>
-      <c r="B22" s="27">
-        <v>2240</v>
-      </c>
-      <c r="C22" s="1"/>
-      <c r="D22" s="26" t="s">
-        <v>93</v>
-      </c>
-      <c r="E22" s="27">
-        <v>5280</v>
-      </c>
-      <c r="F22" s="1"/>
-      <c r="G22" s="26" t="s">
-        <v>71</v>
-      </c>
-      <c r="H22" s="28">
-        <v>55</v>
-      </c>
-      <c r="I22" s="1"/>
-      <c r="J22" s="26" t="s">
-        <v>94</v>
-      </c>
-      <c r="K22" s="27">
-        <v>2445</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A23" s="29" t="s">
-        <v>80</v>
-      </c>
-      <c r="B23" s="30">
-        <v>17830</v>
-      </c>
-      <c r="C23" s="1"/>
-      <c r="D23" s="29" t="s">
-        <v>80</v>
-      </c>
-      <c r="E23" s="30">
-        <v>73350</v>
-      </c>
-      <c r="F23" s="1"/>
-      <c r="G23" s="29" t="s">
-        <v>80</v>
-      </c>
-      <c r="H23" s="31">
-        <v>190</v>
-      </c>
-      <c r="I23" s="1"/>
-      <c r="J23" s="29" t="s">
-        <v>80</v>
-      </c>
-      <c r="K23" s="30">
-        <v>27615</v>
-      </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A24" s="1"/>
@@ -1829,201 +2726,6 @@
       <c r="J24" s="1"/>
       <c r="K24" s="1"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A25" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="B25" s="22"/>
-      <c r="C25" s="21"/>
-      <c r="D25" s="22" t="s">
-        <v>44</v>
-      </c>
-      <c r="E25" s="22"/>
-      <c r="F25" s="21"/>
-      <c r="G25" s="22" t="s">
-        <v>43</v>
-      </c>
-      <c r="H25" s="22"/>
-      <c r="I25" s="21"/>
-      <c r="J25" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="K25" s="22"/>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A26" s="23" t="s">
-        <v>66</v>
-      </c>
-      <c r="B26" s="24">
-        <v>1970</v>
-      </c>
-      <c r="C26" s="1"/>
-      <c r="D26" s="23" t="s">
-        <v>82</v>
-      </c>
-      <c r="E26" s="25">
-        <v>50</v>
-      </c>
-      <c r="F26" s="1"/>
-      <c r="G26" s="23" t="s">
-        <v>95</v>
-      </c>
-      <c r="H26" s="35">
-        <v>120</v>
-      </c>
-      <c r="I26" s="1"/>
-      <c r="J26" s="23" t="s">
-        <v>69</v>
-      </c>
-      <c r="K26" s="24">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A27" s="26" t="s">
-        <v>96</v>
-      </c>
-      <c r="B27" s="27">
-        <v>870</v>
-      </c>
-      <c r="C27" s="1"/>
-      <c r="D27" s="26" t="s">
-        <v>71</v>
-      </c>
-      <c r="E27" s="28">
-        <v>20</v>
-      </c>
-      <c r="F27" s="1"/>
-      <c r="G27" s="26" t="s">
-        <v>82</v>
-      </c>
-      <c r="H27" s="32">
-        <v>50</v>
-      </c>
-      <c r="I27" s="1"/>
-      <c r="J27" s="26" t="s">
-        <v>66</v>
-      </c>
-      <c r="K27" s="27">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A28" s="26" t="s">
-        <v>87</v>
-      </c>
-      <c r="B28" s="27">
-        <v>615</v>
-      </c>
-      <c r="C28" s="1"/>
-      <c r="D28" s="26" t="s">
-        <v>97</v>
-      </c>
-      <c r="E28" s="28">
-        <v>15</v>
-      </c>
-      <c r="F28" s="1"/>
-      <c r="G28" s="26" t="s">
-        <v>71</v>
-      </c>
-      <c r="H28" s="32">
-        <v>35</v>
-      </c>
-      <c r="I28" s="1"/>
-      <c r="J28" s="26" t="s">
-        <v>71</v>
-      </c>
-      <c r="K28" s="27">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A29" s="26" t="s">
-        <v>75</v>
-      </c>
-      <c r="B29" s="27">
-        <v>580</v>
-      </c>
-      <c r="C29" s="1"/>
-      <c r="D29" s="26" t="s">
-        <v>83</v>
-      </c>
-      <c r="E29" s="28">
-        <v>10</v>
-      </c>
-      <c r="F29" s="1"/>
-      <c r="G29" s="26" t="s">
-        <v>97</v>
-      </c>
-      <c r="H29" s="32">
-        <v>25</v>
-      </c>
-      <c r="I29" s="1"/>
-      <c r="J29" s="26" t="s">
-        <v>67</v>
-      </c>
-      <c r="K29" s="27">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A30" s="26" t="s">
-        <v>98</v>
-      </c>
-      <c r="B30" s="27">
-        <v>500</v>
-      </c>
-      <c r="C30" s="1"/>
-      <c r="D30" s="26" t="s">
-        <v>99</v>
-      </c>
-      <c r="E30" s="28">
-        <v>10</v>
-      </c>
-      <c r="F30" s="1"/>
-      <c r="G30" s="26" t="s">
-        <v>86</v>
-      </c>
-      <c r="H30" s="32">
-        <v>20</v>
-      </c>
-      <c r="I30" s="1"/>
-      <c r="J30" s="26" t="s">
-        <v>73</v>
-      </c>
-      <c r="K30" s="27">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A31" s="29" t="s">
-        <v>80</v>
-      </c>
-      <c r="B31" s="30">
-        <v>3080</v>
-      </c>
-      <c r="C31" s="1"/>
-      <c r="D31" s="29" t="s">
-        <v>80</v>
-      </c>
-      <c r="E31" s="31">
-        <v>75</v>
-      </c>
-      <c r="F31" s="1"/>
-      <c r="G31" s="29" t="s">
-        <v>80</v>
-      </c>
-      <c r="H31" s="31">
-        <v>135</v>
-      </c>
-      <c r="I31" s="1"/>
-      <c r="J31" s="29" t="s">
-        <v>80</v>
-      </c>
-      <c r="K31" s="30">
-        <v>1030</v>
-      </c>
-    </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
@@ -2037,201 +2739,6 @@
       <c r="J32" s="1"/>
       <c r="K32" s="1"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A33" s="22" t="s">
-        <v>42</v>
-      </c>
-      <c r="B33" s="22"/>
-      <c r="C33" s="21"/>
-      <c r="D33" s="22" t="s">
-        <v>37</v>
-      </c>
-      <c r="E33" s="22"/>
-      <c r="F33" s="21"/>
-      <c r="G33" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="H33" s="22"/>
-      <c r="I33" s="21"/>
-      <c r="J33" s="22" t="s">
-        <v>28</v>
-      </c>
-      <c r="K33" s="22"/>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A34" s="23" t="s">
-        <v>67</v>
-      </c>
-      <c r="B34" s="25">
-        <v>270</v>
-      </c>
-      <c r="C34" s="1"/>
-      <c r="D34" s="23" t="s">
-        <v>66</v>
-      </c>
-      <c r="E34" s="25">
-        <v>455</v>
-      </c>
-      <c r="F34" s="1"/>
-      <c r="G34" s="23" t="s">
-        <v>66</v>
-      </c>
-      <c r="H34" s="24">
-        <v>2960</v>
-      </c>
-      <c r="I34" s="1"/>
-      <c r="J34" s="23" t="s">
-        <v>66</v>
-      </c>
-      <c r="K34" s="24">
-        <v>3275</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A35" s="26" t="s">
-        <v>71</v>
-      </c>
-      <c r="B35" s="28">
-        <v>215</v>
-      </c>
-      <c r="C35" s="1"/>
-      <c r="D35" s="26" t="s">
-        <v>100</v>
-      </c>
-      <c r="E35" s="28">
-        <v>310</v>
-      </c>
-      <c r="F35" s="1"/>
-      <c r="G35" s="26" t="s">
-        <v>77</v>
-      </c>
-      <c r="H35" s="27">
-        <v>1870</v>
-      </c>
-      <c r="I35" s="1"/>
-      <c r="J35" s="26" t="s">
-        <v>67</v>
-      </c>
-      <c r="K35" s="27">
-        <v>1735</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A36" s="26" t="s">
-        <v>66</v>
-      </c>
-      <c r="B36" s="28">
-        <v>50</v>
-      </c>
-      <c r="C36" s="1"/>
-      <c r="D36" s="26" t="s">
-        <v>101</v>
-      </c>
-      <c r="E36" s="28">
-        <v>305</v>
-      </c>
-      <c r="F36" s="1"/>
-      <c r="G36" s="26" t="s">
-        <v>69</v>
-      </c>
-      <c r="H36" s="27">
-        <v>1410</v>
-      </c>
-      <c r="I36" s="1"/>
-      <c r="J36" s="26" t="s">
-        <v>77</v>
-      </c>
-      <c r="K36" s="27">
-        <v>1040</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A37" s="26" t="s">
-        <v>77</v>
-      </c>
-      <c r="B37" s="28">
-        <v>30</v>
-      </c>
-      <c r="C37" s="1"/>
-      <c r="D37" s="26" t="s">
-        <v>102</v>
-      </c>
-      <c r="E37" s="28">
-        <v>170</v>
-      </c>
-      <c r="F37" s="1"/>
-      <c r="G37" s="26" t="s">
-        <v>86</v>
-      </c>
-      <c r="H37" s="27">
-        <v>1300</v>
-      </c>
-      <c r="I37" s="1"/>
-      <c r="J37" s="26" t="s">
-        <v>82</v>
-      </c>
-      <c r="K37" s="27">
-        <v>670</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A38" s="26" t="s">
-        <v>75</v>
-      </c>
-      <c r="B38" s="28">
-        <v>20</v>
-      </c>
-      <c r="C38" s="1"/>
-      <c r="D38" s="26" t="s">
-        <v>87</v>
-      </c>
-      <c r="E38" s="28">
-        <v>150</v>
-      </c>
-      <c r="F38" s="1"/>
-      <c r="G38" s="26" t="s">
-        <v>91</v>
-      </c>
-      <c r="H38" s="27">
-        <v>1270</v>
-      </c>
-      <c r="I38" s="1"/>
-      <c r="J38" s="26" t="s">
-        <v>71</v>
-      </c>
-      <c r="K38" s="27">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A39" s="29" t="s">
-        <v>80</v>
-      </c>
-      <c r="B39" s="31">
-        <v>45</v>
-      </c>
-      <c r="C39" s="1"/>
-      <c r="D39" s="29" t="s">
-        <v>80</v>
-      </c>
-      <c r="E39" s="31">
-        <v>640</v>
-      </c>
-      <c r="F39" s="1"/>
-      <c r="G39" s="29" t="s">
-        <v>80</v>
-      </c>
-      <c r="H39" s="30">
-        <v>11655</v>
-      </c>
-      <c r="I39" s="1"/>
-      <c r="J39" s="29" t="s">
-        <v>80</v>
-      </c>
-      <c r="K39" s="30">
-        <v>4035</v>
-      </c>
-    </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
@@ -2245,201 +2752,6 @@
       <c r="J40" s="1"/>
       <c r="K40" s="1"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A41" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="B41" s="22"/>
-      <c r="C41" s="21"/>
-      <c r="D41" s="22" t="s">
-        <v>40</v>
-      </c>
-      <c r="E41" s="22"/>
-      <c r="F41" s="21"/>
-      <c r="G41" s="22" t="s">
-        <v>38</v>
-      </c>
-      <c r="H41" s="22"/>
-      <c r="I41" s="21"/>
-      <c r="J41" s="22" t="s">
-        <v>33</v>
-      </c>
-      <c r="K41" s="22"/>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A42" s="23" t="s">
-        <v>82</v>
-      </c>
-      <c r="B42" s="24">
-        <v>1600</v>
-      </c>
-      <c r="C42" s="1"/>
-      <c r="D42" s="23" t="s">
-        <v>103</v>
-      </c>
-      <c r="E42" s="25">
-        <v>225</v>
-      </c>
-      <c r="F42" s="1"/>
-      <c r="G42" s="23" t="s">
-        <v>71</v>
-      </c>
-      <c r="H42" s="25">
-        <v>970</v>
-      </c>
-      <c r="I42" s="1"/>
-      <c r="J42" s="23" t="s">
-        <v>75</v>
-      </c>
-      <c r="K42" s="25">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A43" s="26" t="s">
-        <v>68</v>
-      </c>
-      <c r="B43" s="27">
-        <v>225</v>
-      </c>
-      <c r="C43" s="1"/>
-      <c r="D43" s="26" t="s">
-        <v>68</v>
-      </c>
-      <c r="E43" s="28">
-        <v>135</v>
-      </c>
-      <c r="F43" s="1"/>
-      <c r="G43" s="26" t="s">
-        <v>66</v>
-      </c>
-      <c r="H43" s="28">
-        <v>350</v>
-      </c>
-      <c r="I43" s="1"/>
-      <c r="J43" s="26" t="s">
-        <v>91</v>
-      </c>
-      <c r="K43" s="28">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A44" s="26" t="s">
-        <v>71</v>
-      </c>
-      <c r="B44" s="27">
-        <v>65</v>
-      </c>
-      <c r="C44" s="1"/>
-      <c r="D44" s="26" t="s">
-        <v>104</v>
-      </c>
-      <c r="E44" s="28">
-        <v>130</v>
-      </c>
-      <c r="F44" s="1"/>
-      <c r="G44" s="26" t="s">
-        <v>77</v>
-      </c>
-      <c r="H44" s="28">
-        <v>140</v>
-      </c>
-      <c r="I44" s="1"/>
-      <c r="J44" s="26" t="s">
-        <v>67</v>
-      </c>
-      <c r="K44" s="28">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A45" s="26" t="s">
-        <v>86</v>
-      </c>
-      <c r="B45" s="27">
-        <v>55</v>
-      </c>
-      <c r="C45" s="1"/>
-      <c r="D45" s="26" t="s">
-        <v>74</v>
-      </c>
-      <c r="E45" s="28">
-        <v>70</v>
-      </c>
-      <c r="F45" s="1"/>
-      <c r="G45" s="26" t="s">
-        <v>87</v>
-      </c>
-      <c r="H45" s="28">
-        <v>80</v>
-      </c>
-      <c r="I45" s="1"/>
-      <c r="J45" s="26" t="s">
-        <v>79</v>
-      </c>
-      <c r="K45" s="28">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A46" s="26" t="s">
-        <v>67</v>
-      </c>
-      <c r="B46" s="27">
-        <v>40</v>
-      </c>
-      <c r="C46" s="1"/>
-      <c r="D46" s="26" t="s">
-        <v>75</v>
-      </c>
-      <c r="E46" s="28">
-        <v>50</v>
-      </c>
-      <c r="F46" s="1"/>
-      <c r="G46" s="26" t="s">
-        <v>86</v>
-      </c>
-      <c r="H46" s="28">
-        <v>65</v>
-      </c>
-      <c r="I46" s="1"/>
-      <c r="J46" s="26" t="s">
-        <v>77</v>
-      </c>
-      <c r="K46" s="28">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A47" s="29" t="s">
-        <v>80</v>
-      </c>
-      <c r="B47" s="30">
-        <v>425</v>
-      </c>
-      <c r="C47" s="1"/>
-      <c r="D47" s="29" t="s">
-        <v>80</v>
-      </c>
-      <c r="E47" s="31">
-        <v>625</v>
-      </c>
-      <c r="F47" s="1"/>
-      <c r="G47" s="29" t="s">
-        <v>80</v>
-      </c>
-      <c r="H47" s="31">
-        <v>340</v>
-      </c>
-      <c r="I47" s="1"/>
-      <c r="J47" s="29" t="s">
-        <v>80</v>
-      </c>
-      <c r="K47" s="31">
-        <v>765</v>
-      </c>
-    </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A48" s="1"/>
       <c r="B48" s="1"/>
@@ -2453,201 +2765,6 @@
       <c r="J48" s="1"/>
       <c r="K48" s="1"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A49" s="22" t="s">
-        <v>45</v>
-      </c>
-      <c r="B49" s="22"/>
-      <c r="C49" s="21"/>
-      <c r="D49" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="E49" s="22"/>
-      <c r="F49" s="21"/>
-      <c r="G49" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="H49" s="22"/>
-      <c r="I49" s="21"/>
-      <c r="J49" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="K49" s="22"/>
-    </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A50" s="23" t="s">
-        <v>67</v>
-      </c>
-      <c r="B50" s="25">
-        <v>30</v>
-      </c>
-      <c r="C50" s="1"/>
-      <c r="D50" s="23" t="s">
-        <v>71</v>
-      </c>
-      <c r="E50" s="24">
-        <v>565</v>
-      </c>
-      <c r="F50" s="1"/>
-      <c r="G50" s="23" t="s">
-        <v>66</v>
-      </c>
-      <c r="H50" s="24">
-        <v>2615</v>
-      </c>
-      <c r="I50" s="1"/>
-      <c r="J50" s="23" t="s">
-        <v>77</v>
-      </c>
-      <c r="K50" s="24">
-        <v>3955</v>
-      </c>
-    </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A51" s="26" t="s">
-        <v>105</v>
-      </c>
-      <c r="B51" s="28">
-        <v>20</v>
-      </c>
-      <c r="C51" s="1"/>
-      <c r="D51" s="26" t="s">
-        <v>82</v>
-      </c>
-      <c r="E51" s="27">
-        <v>455</v>
-      </c>
-      <c r="F51" s="1"/>
-      <c r="G51" s="26" t="s">
-        <v>77</v>
-      </c>
-      <c r="H51" s="27">
-        <v>1095</v>
-      </c>
-      <c r="I51" s="1"/>
-      <c r="J51" s="26" t="s">
-        <v>71</v>
-      </c>
-      <c r="K51" s="27">
-        <v>3595</v>
-      </c>
-    </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A52" s="26" t="s">
-        <v>97</v>
-      </c>
-      <c r="B52" s="28">
-        <v>15</v>
-      </c>
-      <c r="C52" s="1"/>
-      <c r="D52" s="26" t="s">
-        <v>86</v>
-      </c>
-      <c r="E52" s="27">
-        <v>285</v>
-      </c>
-      <c r="F52" s="1"/>
-      <c r="G52" s="26" t="s">
-        <v>71</v>
-      </c>
-      <c r="H52" s="27">
-        <v>1065</v>
-      </c>
-      <c r="I52" s="1"/>
-      <c r="J52" s="26" t="s">
-        <v>75</v>
-      </c>
-      <c r="K52" s="27">
-        <v>2575</v>
-      </c>
-    </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A53" s="26" t="s">
-        <v>77</v>
-      </c>
-      <c r="B53" s="28">
-        <v>15</v>
-      </c>
-      <c r="C53" s="1"/>
-      <c r="D53" s="26" t="s">
-        <v>77</v>
-      </c>
-      <c r="E53" s="27">
-        <v>230</v>
-      </c>
-      <c r="F53" s="1"/>
-      <c r="G53" s="26" t="s">
-        <v>73</v>
-      </c>
-      <c r="H53" s="27">
-        <v>1040</v>
-      </c>
-      <c r="I53" s="1"/>
-      <c r="J53" s="26" t="s">
-        <v>81</v>
-      </c>
-      <c r="K53" s="27">
-        <v>2370</v>
-      </c>
-    </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A54" s="26" t="s">
-        <v>71</v>
-      </c>
-      <c r="B54" s="28">
-        <v>15</v>
-      </c>
-      <c r="C54" s="1"/>
-      <c r="D54" s="26" t="s">
-        <v>100</v>
-      </c>
-      <c r="E54" s="27">
-        <v>155</v>
-      </c>
-      <c r="F54" s="1"/>
-      <c r="G54" s="26" t="s">
-        <v>69</v>
-      </c>
-      <c r="H54" s="27">
-        <v>750</v>
-      </c>
-      <c r="I54" s="1"/>
-      <c r="J54" s="26" t="s">
-        <v>69</v>
-      </c>
-      <c r="K54" s="27">
-        <v>2195</v>
-      </c>
-    </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A55" s="29" t="s">
-        <v>80</v>
-      </c>
-      <c r="B55" s="31">
-        <v>55</v>
-      </c>
-      <c r="C55" s="1"/>
-      <c r="D55" s="29" t="s">
-        <v>80</v>
-      </c>
-      <c r="E55" s="30">
-        <v>1260</v>
-      </c>
-      <c r="F55" s="1"/>
-      <c r="G55" s="29" t="s">
-        <v>80</v>
-      </c>
-      <c r="H55" s="30">
-        <v>11505</v>
-      </c>
-      <c r="I55" s="1"/>
-      <c r="J55" s="29" t="s">
-        <v>80</v>
-      </c>
-      <c r="K55" s="30">
-        <v>22595</v>
-      </c>
-    </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A56" s="1"/>
       <c r="B56" s="1"/>
@@ -2661,235 +2778,36 @@
       <c r="J56" s="1"/>
       <c r="K56" s="1"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A57" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="B57" s="22"/>
-      <c r="C57" s="21"/>
-      <c r="D57" s="22" t="s">
-        <v>50</v>
-      </c>
-      <c r="E57" s="22"/>
-      <c r="F57" s="21"/>
-      <c r="G57" s="22" t="s">
-        <v>48</v>
-      </c>
-      <c r="H57" s="22"/>
-      <c r="I57" s="21"/>
-      <c r="J57" s="22" t="s">
-        <v>47</v>
-      </c>
-      <c r="K57" s="22"/>
-    </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A58" s="23" t="s">
-        <v>71</v>
-      </c>
-      <c r="B58" s="25">
-        <v>110</v>
-      </c>
-      <c r="C58" s="1"/>
-      <c r="D58" s="34" t="s">
-        <v>106</v>
-      </c>
-      <c r="E58" s="35">
-        <v>25</v>
-      </c>
-      <c r="F58" s="1"/>
-      <c r="G58" s="23" t="s">
-        <v>86</v>
-      </c>
-      <c r="H58" s="25">
-        <v>770</v>
-      </c>
-      <c r="I58" s="1"/>
-      <c r="J58" s="23" t="s">
-        <v>69</v>
-      </c>
-      <c r="K58" s="24">
-        <v>2495</v>
-      </c>
-    </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A59" s="26" t="s">
-        <v>81</v>
-      </c>
-      <c r="B59" s="28">
-        <v>90</v>
-      </c>
-      <c r="C59" s="1"/>
-      <c r="D59" s="36" t="s">
-        <v>73</v>
-      </c>
-      <c r="E59" s="32">
-        <v>25</v>
-      </c>
-      <c r="F59" s="1"/>
-      <c r="G59" s="26" t="s">
-        <v>66</v>
-      </c>
-      <c r="H59" s="28">
-        <v>415</v>
-      </c>
-      <c r="I59" s="1"/>
-      <c r="J59" s="26" t="s">
-        <v>66</v>
-      </c>
-      <c r="K59" s="27">
-        <v>1195</v>
-      </c>
-    </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A60" s="26" t="s">
-        <v>100</v>
-      </c>
-      <c r="B60" s="28">
-        <v>50</v>
-      </c>
-      <c r="C60" s="1"/>
-      <c r="D60" s="36" t="s">
-        <v>107</v>
-      </c>
-      <c r="E60" s="32">
-        <v>20</v>
-      </c>
-      <c r="F60" s="1"/>
-      <c r="G60" s="26" t="s">
-        <v>69</v>
-      </c>
-      <c r="H60" s="28">
-        <v>220</v>
-      </c>
-      <c r="I60" s="1"/>
-      <c r="J60" s="26" t="s">
-        <v>67</v>
-      </c>
-      <c r="K60" s="27">
-        <v>1125</v>
-      </c>
-    </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A61" s="26" t="s">
-        <v>67</v>
-      </c>
-      <c r="B61" s="28">
-        <v>45</v>
-      </c>
-      <c r="C61" s="1"/>
-      <c r="D61" s="36" t="s">
-        <v>108</v>
-      </c>
-      <c r="E61" s="32">
-        <v>10</v>
-      </c>
-      <c r="F61" s="1"/>
-      <c r="G61" s="26" t="s">
-        <v>77</v>
-      </c>
-      <c r="H61" s="28">
-        <v>110</v>
-      </c>
-      <c r="I61" s="1"/>
-      <c r="J61" s="26" t="s">
-        <v>86</v>
-      </c>
-      <c r="K61" s="27">
-        <v>925</v>
-      </c>
-    </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A62" s="26" t="s">
-        <v>75</v>
-      </c>
-      <c r="B62" s="28">
-        <v>40</v>
-      </c>
-      <c r="C62" s="1"/>
-      <c r="D62" s="36" t="s">
-        <v>68</v>
-      </c>
-      <c r="E62" s="32">
-        <v>10</v>
-      </c>
-      <c r="F62" s="1"/>
-      <c r="G62" s="26" t="s">
-        <v>71</v>
-      </c>
-      <c r="H62" s="28">
-        <v>95</v>
-      </c>
-      <c r="I62" s="1"/>
-      <c r="J62" s="26" t="s">
-        <v>73</v>
-      </c>
-      <c r="K62" s="27">
-        <v>805</v>
-      </c>
-    </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A63" s="29" t="s">
-        <v>80</v>
-      </c>
-      <c r="B63" s="31">
-        <v>390</v>
-      </c>
-      <c r="C63" s="1"/>
-      <c r="D63" s="37" t="s">
-        <v>80</v>
-      </c>
-      <c r="E63" s="33">
-        <v>55</v>
-      </c>
-      <c r="F63" s="1"/>
-      <c r="G63" s="29" t="s">
-        <v>80</v>
-      </c>
-      <c r="H63" s="31">
-        <v>920</v>
-      </c>
-      <c r="I63" s="1"/>
-      <c r="J63" s="29" t="s">
-        <v>80</v>
-      </c>
-      <c r="K63" s="30">
-        <v>6920</v>
-      </c>
-    </row>
   </sheetData>
-  <mergeCells count="32">
-    <mergeCell ref="A49:B49"/>
-    <mergeCell ref="D49:E49"/>
-    <mergeCell ref="G49:H49"/>
-    <mergeCell ref="J49:K49"/>
-    <mergeCell ref="A57:B57"/>
-    <mergeCell ref="D57:E57"/>
-    <mergeCell ref="G57:H57"/>
-    <mergeCell ref="J57:K57"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="G33:H33"/>
-    <mergeCell ref="J33:K33"/>
-    <mergeCell ref="A41:B41"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="G41:H41"/>
-    <mergeCell ref="J41:K41"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="J17:K17"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="J25:K25"/>
+  <mergeCells count="28">
+    <mergeCell ref="BU1:BV1"/>
+    <mergeCell ref="BX1:BY1"/>
+    <mergeCell ref="CA1:CB1"/>
+    <mergeCell ref="CD1:CE1"/>
+    <mergeCell ref="CG1:CH1"/>
+    <mergeCell ref="CJ1:CK1"/>
+    <mergeCell ref="CM1:CN1"/>
+    <mergeCell ref="CP1:CQ1"/>
+    <mergeCell ref="BI1:BJ1"/>
+    <mergeCell ref="BL1:BM1"/>
+    <mergeCell ref="BO1:BP1"/>
+    <mergeCell ref="BR1:BS1"/>
+    <mergeCell ref="Y1:Z1"/>
+    <mergeCell ref="AB1:AC1"/>
+    <mergeCell ref="AE1:AF1"/>
+    <mergeCell ref="AH1:AI1"/>
+    <mergeCell ref="AK1:AL1"/>
+    <mergeCell ref="AN1:AO1"/>
+    <mergeCell ref="AQ1:AR1"/>
+    <mergeCell ref="AT1:AU1"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="G1:H1"/>
     <mergeCell ref="J1:K1"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="J9:K9"/>
+    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="P1:Q1"/>
+    <mergeCell ref="S1:T1"/>
+    <mergeCell ref="V1:W1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2897,10 +2815,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{720A9A1F-6807-48A3-8450-ABC2836FF49D}">
-  <dimension ref="A1:G63"/>
+  <dimension ref="A1:C63"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2911,14 +2829,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="40" t="s">
-        <v>142</v>
-      </c>
-      <c r="C1" s="40" t="s">
+      <c r="B1" s="38" t="s">
         <v>141</v>
+      </c>
+      <c r="C1" s="38" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
@@ -2929,7 +2847,7 @@
         <v>102.375</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
@@ -2940,7 +2858,7 @@
         <v>43.8</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
@@ -2951,7 +2869,7 @@
         <v>47.65</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
@@ -2962,7 +2880,7 @@
         <v>29.67</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
@@ -2973,7 +2891,7 @@
         <v>17.324999999999999</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
@@ -2984,7 +2902,7 @@
         <v>39.185000000000002</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
@@ -2995,7 +2913,7 @@
         <v>14.654999999999999</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
@@ -3006,7 +2924,7 @@
         <v>13.01</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
@@ -3017,7 +2935,7 @@
         <v>22.27</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
@@ -3028,7 +2946,7 @@
         <v>9.99</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
@@ -3039,7 +2957,7 @@
         <v>24.375</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
@@ -3050,7 +2968,7 @@
         <v>17.765000000000001</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
@@ -3061,7 +2979,7 @@
         <v>19.335000000000001</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.35">
@@ -3072,7 +2990,7 @@
         <v>12.705</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.35">
@@ -3083,7 +3001,7 @@
         <v>12.744999999999999</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.35">
@@ -3094,7 +3012,7 @@
         <v>3.9449999999999998</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.35">
@@ -3105,7 +3023,7 @@
         <v>9.24</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.35">
@@ -3116,7 +3034,7 @@
         <v>8.9550000000000001</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.35">
@@ -3127,7 +3045,7 @@
         <v>14.025</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.35">
@@ -3138,7 +3056,7 @@
         <v>9.2050000000000001</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.35">
@@ -3149,7 +3067,7 @@
         <v>7.82</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.35">
@@ -3160,7 +3078,7 @@
         <v>4.54</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.35">
@@ -3170,8 +3088,8 @@
       <c r="B24" s="8">
         <v>6.7549999999999999</v>
       </c>
-      <c r="C24" s="39" t="s">
-        <v>131</v>
+      <c r="C24" s="37" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.35">
@@ -3182,7 +3100,7 @@
         <v>10.32</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.35">
@@ -3193,7 +3111,7 @@
         <v>4.87</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.35">
@@ -3204,7 +3122,7 @@
         <v>4.9800000000000004</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.35">
@@ -3215,7 +3133,7 @@
         <v>10.25</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.35">
@@ -3226,7 +3144,7 @@
         <v>5.81</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.35">
@@ -3236,8 +3154,8 @@
       <c r="B30" s="8">
         <v>6.8049999999999997</v>
       </c>
-      <c r="C30" s="39" t="s">
-        <v>137</v>
+      <c r="C30" s="37" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.35">
@@ -3248,7 +3166,7 @@
         <v>3.04</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.35">
@@ -3259,348 +3177,348 @@
         <v>117.19500000000001</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A33" s="38">
+      <c r="A33" s="36">
         <v>2018</v>
       </c>
       <c r="B33" s="8">
         <v>80.92</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A34" s="38">
+      <c r="A34" s="36">
         <v>2018</v>
       </c>
       <c r="B34" s="8">
         <v>40.99</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A35" s="38">
+      <c r="A35" s="36">
         <v>2018</v>
       </c>
       <c r="B35" s="8">
         <v>39.594999999999999</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A36" s="38">
+      <c r="A36" s="36">
         <v>2018</v>
       </c>
       <c r="B36" s="8">
         <v>24.704999999999998</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A37" s="38">
+      <c r="A37" s="36">
         <v>2018</v>
       </c>
       <c r="B37" s="8">
         <v>23.195</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A38" s="38">
+      <c r="A38" s="36">
         <v>2018</v>
       </c>
       <c r="B38" s="8">
         <v>22.12</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A39" s="38">
+      <c r="A39" s="36">
         <v>2018</v>
       </c>
       <c r="B39" s="8">
         <v>21.965</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A40" s="38">
+      <c r="A40" s="36">
         <v>2018</v>
       </c>
       <c r="B40" s="8">
         <v>21.92</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A41" s="38">
+      <c r="A41" s="36">
         <v>2018</v>
       </c>
       <c r="B41" s="8">
         <v>19.024999999999999</v>
       </c>
       <c r="C41" s="6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A42" s="38">
+      <c r="A42" s="36">
         <v>2018</v>
       </c>
       <c r="B42" s="8">
         <v>17.98</v>
       </c>
       <c r="C42" s="6" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A43" s="38">
+      <c r="A43" s="36">
         <v>2018</v>
       </c>
       <c r="B43" s="8">
         <v>14.945</v>
       </c>
       <c r="C43" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A44" s="38">
+      <c r="A44" s="36">
         <v>2018</v>
       </c>
       <c r="B44" s="8">
         <v>13.295</v>
       </c>
       <c r="C44" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A45" s="38">
+      <c r="A45" s="36">
         <v>2018</v>
       </c>
       <c r="B45" s="8">
         <v>12.65</v>
       </c>
       <c r="C45" s="6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A46" s="38">
+      <c r="A46" s="36">
         <v>2018</v>
       </c>
       <c r="B46" s="8">
         <v>11.65</v>
       </c>
       <c r="C46" s="6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A47" s="38">
+      <c r="A47" s="36">
         <v>2018</v>
       </c>
       <c r="B47" s="8">
         <v>11.305</v>
       </c>
       <c r="C47" s="6" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A48" s="38">
+      <c r="A48" s="36">
         <v>2018</v>
       </c>
       <c r="B48" s="8">
         <v>9.9700000000000006</v>
       </c>
       <c r="C48" s="6" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A49" s="38">
+      <c r="A49" s="36">
         <v>2018</v>
       </c>
       <c r="B49" s="8">
         <v>9.1850000000000005</v>
       </c>
       <c r="C49" s="6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A50" s="38">
+      <c r="A50" s="36">
         <v>2018</v>
       </c>
       <c r="B50" s="8">
         <v>8.49</v>
       </c>
       <c r="C50" s="6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A51" s="38">
+      <c r="A51" s="36">
         <v>2018</v>
       </c>
       <c r="B51" s="8">
         <v>8.4450000000000003</v>
       </c>
       <c r="C51" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A52" s="38">
+      <c r="A52" s="36">
         <v>2018</v>
       </c>
       <c r="B52" s="8">
         <v>8.1850000000000005</v>
       </c>
       <c r="C52" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A53" s="38">
+      <c r="A53" s="36">
         <v>2018</v>
       </c>
       <c r="B53" s="8">
         <v>7.51</v>
       </c>
       <c r="C53" s="6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A54" s="38">
+      <c r="A54" s="36">
         <v>2018</v>
       </c>
       <c r="B54" s="8">
         <v>7.1749999999999998</v>
       </c>
       <c r="C54" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A55" s="38">
+      <c r="A55" s="36">
         <v>2018</v>
       </c>
       <c r="B55" s="8">
         <v>6.7750000000000004</v>
       </c>
-      <c r="C55" s="39" t="s">
-        <v>131</v>
+      <c r="C55" s="37" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A56" s="38">
+      <c r="A56" s="36">
         <v>2018</v>
       </c>
       <c r="B56" s="8">
         <v>6.23</v>
       </c>
       <c r="C56" s="6" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A57" s="38">
+      <c r="A57" s="36">
         <v>2018</v>
       </c>
       <c r="B57" s="8">
         <v>5.7450000000000001</v>
       </c>
       <c r="C57" s="6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A58" s="38">
+      <c r="A58" s="36">
         <v>2018</v>
       </c>
       <c r="B58" s="8">
         <v>5.28</v>
       </c>
       <c r="C58" s="6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A59" s="38">
+      <c r="A59" s="36">
         <v>2018</v>
       </c>
       <c r="B59" s="8">
         <v>5.2649999999999997</v>
       </c>
       <c r="C59" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A60" s="38">
+      <c r="A60" s="36">
         <v>2018</v>
       </c>
       <c r="B60" s="8">
         <v>5.0999999999999996</v>
       </c>
       <c r="C60" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A61" s="38">
+      <c r="A61" s="36">
         <v>2018</v>
       </c>
       <c r="B61" s="8">
         <v>4.7750000000000004</v>
       </c>
-      <c r="C61" s="39" t="s">
-        <v>137</v>
+      <c r="C61" s="37" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A62" s="38">
+      <c r="A62" s="36">
         <v>2018</v>
       </c>
       <c r="B62" s="8">
         <v>4.67</v>
       </c>
       <c r="C62" s="6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A63" s="38">
+      <c r="A63" s="36">
         <v>2018</v>
       </c>
       <c r="B63" s="8">
         <v>101.785</v>
       </c>
       <c r="C63" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
   </sheetData>
@@ -3614,7 +3532,7 @@
   <dimension ref="A1:C65"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3625,14 +3543,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="40" t="s">
+      <c r="B1" s="38" t="s">
+        <v>141</v>
+      </c>
+      <c r="C1" s="38" t="s">
         <v>142</v>
-      </c>
-      <c r="C1" s="40" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
@@ -4348,8 +4266,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B0C8A09-CD0D-41C6-976B-0B96BAC15EA3}">
   <dimension ref="A1:C48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4359,18 +4277,18 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B1" t="s">
+        <v>144</v>
+      </c>
+      <c r="C1" t="s">
         <v>145</v>
-      </c>
-      <c r="C1" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B2">
         <v>49</v>
@@ -4414,7 +4332,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B6">
         <v>51.5</v>
@@ -4491,7 +4409,7 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B13">
         <v>53</v>
@@ -4546,7 +4464,7 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B18">
         <v>49.75</v>
@@ -4579,7 +4497,7 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B21">
         <v>44.82</v>
@@ -4645,7 +4563,7 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B27">
         <v>44.25</v>
@@ -4700,7 +4618,7 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B32">
         <v>47</v>
@@ -4722,7 +4640,7 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B34">
         <v>41</v>
@@ -4733,7 +4651,7 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B35">
         <v>41.83</v>
@@ -4755,7 +4673,7 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B37">
         <v>43.5</v>
@@ -4788,7 +4706,7 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B40">
         <v>62</v>
@@ -4799,7 +4717,7 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B41">
         <v>42.5</v>
@@ -4832,7 +4750,7 @@
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B44">
         <v>49.58</v>
@@ -4843,7 +4761,7 @@
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B45">
         <v>43.93</v>
@@ -4854,7 +4772,7 @@
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B46">
         <v>36.130000000000003</v>
@@ -4865,7 +4783,7 @@
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B47">
         <v>43.73</v>
@@ -4876,7 +4794,7 @@
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B48">
         <v>41.9</v>
@@ -4895,7 +4813,7 @@
   <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5043,20 +4961,20 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F38FF48-E918-45BF-A2D5-5787A2450083}">
-  <dimension ref="A1:C33"/>
+  <dimension ref="A1:C35"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A33"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13.7265625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="68.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="10" t="s">
-        <v>51</v>
+        <v>158</v>
       </c>
       <c r="B1" s="10" t="s">
         <v>17</v>
@@ -5415,6 +5333,11 @@
       </c>
       <c r="C33" s="12">
         <v>0.14499999999999999</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A35" s="42" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -5427,7 +5350,7 @@
   <dimension ref="A1:G34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5437,30 +5360,30 @@
   <sheetData>
     <row r="1" spans="1:7" ht="23" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B1" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="C1" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="D1" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="E1" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="F1" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="F1" s="14" t="s">
+      <c r="G1" s="14" t="s">
         <v>56</v>
-      </c>
-      <c r="G1" s="14" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B2" s="8">
         <v>24.413569885253381</v>
@@ -5575,7 +5498,7 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B7" s="8">
         <v>41.517126355128639</v>
@@ -6236,11 +6159,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="34.5" x14ac:dyDescent="0.35">
-      <c r="A1" s="41" t="s">
-        <v>144</v>
-      </c>
-      <c r="B1" s="42" t="s">
-        <v>61</v>
+      <c r="A1" s="39" t="s">
+        <v>143</v>
+      </c>
+      <c r="B1" s="40" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
@@ -6518,7 +6441,7 @@
   <dimension ref="A1:F34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I40" sqref="I40"/>
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6526,16 +6449,16 @@
     <row r="1" spans="1:6" ht="58" x14ac:dyDescent="0.35">
       <c r="A1" s="6"/>
       <c r="B1" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="C1" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="D1" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="E1" s="14" t="s">
         <v>64</v>
-      </c>
-      <c r="E1" s="14" t="s">
-        <v>65</v>
       </c>
       <c r="F1" s="6" t="s">
         <v>0</v>
@@ -6543,7 +6466,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B2" s="8">
         <v>20.932169624027093</v>
@@ -6558,7 +6481,7 @@
         <v>62.582521003785153</v>
       </c>
       <c r="F2" s="19">
-        <f ca="1">SUM(B2:F2)</f>
+        <f t="shared" ref="F2:F34" ca="1" si="0">SUM(B2:F2)</f>
         <v>100</v>
       </c>
     </row>
@@ -6579,7 +6502,7 @@
         <v>14.528462192013594</v>
       </c>
       <c r="F3" s="19">
-        <f ca="1">SUM(B3:F3)</f>
+        <f t="shared" ca="1" si="0"/>
         <v>100</v>
       </c>
     </row>
@@ -6600,7 +6523,7 @@
         <v>28.097982708933717</v>
       </c>
       <c r="F4" s="19">
-        <f ca="1">SUM(B4:F4)</f>
+        <f t="shared" ca="1" si="0"/>
         <v>100</v>
       </c>
     </row>
@@ -6621,7 +6544,7 @@
         <v>39.94252873563218</v>
       </c>
       <c r="F5" s="19">
-        <f ca="1">SUM(B5:F5)</f>
+        <f t="shared" ca="1" si="0"/>
         <v>100</v>
       </c>
     </row>
@@ -6642,7 +6565,7 @@
         <v>45.878378378378379</v>
       </c>
       <c r="F6" s="19">
-        <f ca="1">SUM(B6:F6)</f>
+        <f t="shared" ca="1" si="0"/>
         <v>100</v>
       </c>
     </row>
@@ -6663,7 +6586,7 @@
         <v>47.560975609756099</v>
       </c>
       <c r="F7" s="19">
-        <f ca="1">SUM(B7:F7)</f>
+        <f t="shared" ca="1" si="0"/>
         <v>100</v>
       </c>
     </row>
@@ -6684,7 +6607,7 @@
         <v>49.116626353980443</v>
       </c>
       <c r="F8" s="19">
-        <f ca="1">SUM(B8:F8)</f>
+        <f t="shared" ca="1" si="0"/>
         <v>100</v>
       </c>
     </row>
@@ -6705,7 +6628,7 @@
         <v>50</v>
       </c>
       <c r="F9" s="19">
-        <f ca="1">SUM(B9:F9)</f>
+        <f t="shared" ca="1" si="0"/>
         <v>100</v>
       </c>
     </row>
@@ -6726,7 +6649,7 @@
         <v>50</v>
       </c>
       <c r="F10" s="19">
-        <f ca="1">SUM(B10:F10)</f>
+        <f t="shared" ca="1" si="0"/>
         <v>100</v>
       </c>
     </row>
@@ -6747,7 +6670,7 @@
         <v>50.98909971740008</v>
       </c>
       <c r="F11" s="19">
-        <f ca="1">SUM(B11:F11)</f>
+        <f t="shared" ca="1" si="0"/>
         <v>100</v>
       </c>
     </row>
@@ -6768,7 +6691,7 @@
         <v>52.962275819418679</v>
       </c>
       <c r="F12" s="19">
-        <f ca="1">SUM(B12:F12)</f>
+        <f t="shared" ca="1" si="0"/>
         <v>100</v>
       </c>
     </row>
@@ -6789,7 +6712,7 @@
         <v>53.970701619121051</v>
       </c>
       <c r="F13" s="19">
-        <f ca="1">SUM(B13:F13)</f>
+        <f t="shared" ca="1" si="0"/>
         <v>100</v>
       </c>
     </row>
@@ -6810,7 +6733,7 @@
         <v>56.486979694696295</v>
       </c>
       <c r="F14" s="19">
-        <f ca="1">SUM(B14:F14)</f>
+        <f t="shared" ca="1" si="0"/>
         <v>100</v>
       </c>
     </row>
@@ -6831,7 +6754,7 @@
         <v>56.895403064623586</v>
       </c>
       <c r="F15" s="19">
-        <f ca="1">SUM(B15:F15)</f>
+        <f t="shared" ca="1" si="0"/>
         <v>100</v>
       </c>
     </row>
@@ -6852,13 +6775,13 @@
         <v>56.962025316455701</v>
       </c>
       <c r="F16" s="19">
-        <f ca="1">SUM(B16:F16)</f>
+        <f t="shared" ca="1" si="0"/>
         <v>100</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B17" s="8">
         <v>23.096163294474966</v>
@@ -6873,7 +6796,7 @@
         <v>57.603064004645141</v>
       </c>
       <c r="F17" s="19">
-        <f ca="1">SUM(B17:F17)</f>
+        <f t="shared" ca="1" si="0"/>
         <v>100</v>
       </c>
     </row>
@@ -6894,7 +6817,7 @@
         <v>61.691022964509386</v>
       </c>
       <c r="F18" s="19">
-        <f ca="1">SUM(B18:F18)</f>
+        <f t="shared" ca="1" si="0"/>
         <v>100</v>
       </c>
     </row>
@@ -6915,7 +6838,7 @@
         <v>64.799688837028384</v>
       </c>
       <c r="F19" s="19">
-        <f ca="1">SUM(B19:F19)</f>
+        <f t="shared" ca="1" si="0"/>
         <v>100</v>
       </c>
     </row>
@@ -6936,7 +6859,7 @@
         <v>64.990512333965839</v>
       </c>
       <c r="F20" s="19">
-        <f ca="1">SUM(B20:F20)</f>
+        <f t="shared" ca="1" si="0"/>
         <v>100</v>
       </c>
     </row>
@@ -6957,7 +6880,7 @@
         <v>65.009354861062988</v>
       </c>
       <c r="F21" s="19">
-        <f ca="1">SUM(B21:F21)</f>
+        <f t="shared" ca="1" si="0"/>
         <v>100</v>
       </c>
     </row>
@@ -6978,7 +6901,7 @@
         <v>66.027012356716369</v>
       </c>
       <c r="F22" s="19">
-        <f ca="1">SUM(B22:F22)</f>
+        <f t="shared" ca="1" si="0"/>
         <v>100</v>
       </c>
     </row>
@@ -6999,7 +6922,7 @@
         <v>67.789097783846231</v>
       </c>
       <c r="F23" s="19">
-        <f ca="1">SUM(B23:F23)</f>
+        <f t="shared" ca="1" si="0"/>
         <v>100</v>
       </c>
     </row>
@@ -7020,7 +6943,7 @@
         <v>69.124423963133637</v>
       </c>
       <c r="F24" s="19">
-        <f ca="1">SUM(B24:F24)</f>
+        <f t="shared" ca="1" si="0"/>
         <v>100</v>
       </c>
     </row>
@@ -7041,7 +6964,7 @@
         <v>71.226239284383155</v>
       </c>
       <c r="F25" s="19">
-        <f ca="1">SUM(B25:F25)</f>
+        <f t="shared" ca="1" si="0"/>
         <v>100</v>
       </c>
     </row>
@@ -7062,7 +6985,7 @@
         <v>75</v>
       </c>
       <c r="F26" s="19">
-        <f ca="1">SUM(B26:F26)</f>
+        <f t="shared" ca="1" si="0"/>
         <v>100</v>
       </c>
     </row>
@@ -7083,7 +7006,7 @@
         <v>75.614685079151229</v>
       </c>
       <c r="F27" s="19">
-        <f ca="1">SUM(B27:F27)</f>
+        <f t="shared" ca="1" si="0"/>
         <v>100</v>
       </c>
     </row>
@@ -7104,7 +7027,7 @@
         <v>76</v>
       </c>
       <c r="F28" s="19">
-        <f ca="1">SUM(B28:F28)</f>
+        <f t="shared" ca="1" si="0"/>
         <v>100</v>
       </c>
     </row>
@@ -7125,7 +7048,7 @@
         <v>86.298867373036174</v>
       </c>
       <c r="F29" s="19">
-        <f ca="1">SUM(B29:F29)</f>
+        <f t="shared" ca="1" si="0"/>
         <v>100</v>
       </c>
     </row>
@@ -7146,7 +7069,7 @@
         <v>88.728323699421964</v>
       </c>
       <c r="F30" s="19">
-        <f ca="1">SUM(B30:F30)</f>
+        <f t="shared" ca="1" si="0"/>
         <v>100</v>
       </c>
     </row>
@@ -7167,7 +7090,7 @@
         <v>10.429411764705883</v>
       </c>
       <c r="F31" s="19">
-        <f ca="1">SUM(B31:F31)</f>
+        <f t="shared" ca="1" si="0"/>
         <v>100</v>
       </c>
     </row>
@@ -7188,7 +7111,7 @@
         <v>31.016548463356976</v>
       </c>
       <c r="F32" s="19">
-        <f ca="1">SUM(B32:F32)</f>
+        <f t="shared" ca="1" si="0"/>
         <v>100</v>
       </c>
     </row>
@@ -7209,7 +7132,7 @@
         <v>72.29551451187335</v>
       </c>
       <c r="F33" s="19">
-        <f ca="1">SUM(B33:F33)</f>
+        <f t="shared" ca="1" si="0"/>
         <v>100</v>
       </c>
     </row>
@@ -7230,7 +7153,7 @@
         <v>77.5</v>
       </c>
       <c r="F34" s="19">
-        <f ca="1">SUM(B34:F34)</f>
+        <f t="shared" ca="1" si="0"/>
         <v>100</v>
       </c>
     </row>
